--- a/Trieur/Verbe_Conjuguer.xlsx
+++ b/Trieur/Verbe_Conjuguer.xlsx
@@ -387,7 +387,7 @@
     <row r="4" ht="15" customHeight="1" s="3">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>matller</t>
+          <t>matllto</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -423,7 +423,7 @@
     <row r="7" ht="15" customHeight="1" s="3">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>peto</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -435,7 +435,7 @@
     <row r="8" ht="15" customHeight="1" s="3">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>abetire</t>
+          <t>abetiio</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -459,7 +459,7 @@
     <row r="10" ht="15" customHeight="1" s="3">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>dañnnto</t>
+          <t>dañnnre</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -495,7 +495,7 @@
     <row r="13" ht="15" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>aboolre</t>
+          <t>aboolio</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="14" ht="15" customHeight="1" s="3">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>susivre</t>
+          <t>susiver</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="19" ht="15" customHeight="1" s="3">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>regquio</t>
+          <t>regqure</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="21" ht="15" customHeight="1" s="3">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>refario</t>
+          <t>refarto</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="22" ht="15" customHeight="1" s="3">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>revonto</t>
+          <t>revonre</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="30" ht="15" customHeight="1" s="3">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>alerire</t>
+          <t>alerito</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="41" ht="15" customHeight="1" s="3">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>aceerre</t>
+          <t>aceerer</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="43" ht="15" customHeight="1" s="3">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>comntre</t>
+          <t>comntto</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
     <row r="44" ht="15" customHeight="1" s="3">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>finnre</t>
+          <t>finnto</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="55" ht="15" customHeight="1" s="3">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>adhntio</t>
+          <t>adhnter</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
     <row r="59" ht="15" customHeight="1" s="3">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>adonter</t>
+          <t>adontre</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="62" ht="15" customHeight="1" s="3">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>DIRzzto</t>
+          <t>DIRzzio</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
     <row r="72" ht="15" customHeight="1" s="3">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>rebgger</t>
+          <t>rebggto</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1239,7 +1239,7 @@
     <row r="75" ht="15" customHeight="1" s="3">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>conrser</t>
+          <t>conrsre</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="85" ht="15" customHeight="1" s="3">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>acerder</t>
+          <t>acerdto</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="86" ht="15" customHeight="1" s="3">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>recivre</t>
+          <t>recivto</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="87" ht="15" customHeight="1" s="3">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>agaedio</t>
+          <t>agaedto</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -1419,7 +1419,7 @@
     <row r="90" ht="15" customHeight="1" s="3">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>aguolto</t>
+          <t>aguolio</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
     <row r="93" ht="15" customHeight="1" s="3">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>aiire</t>
+          <t>aiito</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="97" ht="15" customHeight="1" s="3">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>alarmer</t>
+          <t>alarmto</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -1527,7 +1527,7 @@
     <row r="99" ht="15" customHeight="1" s="3">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Argriio</t>
+          <t>Argrito</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="102" ht="15" customHeight="1" s="3">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>amaener</t>
+          <t>amaenre</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
     <row r="105" ht="15" customHeight="1" s="3">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>todorre</t>
+          <t>todorto</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="111" ht="15" customHeight="1" s="3">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>volntre</t>
+          <t>volntto</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="115" ht="15" customHeight="1" s="3">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>peresto</t>
+          <t>peresio</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="117" ht="15" customHeight="1" s="3">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>almrlio</t>
+          <t>almrler</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -1755,7 +1755,7 @@
     <row r="118" ht="15" customHeight="1" s="3">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>Párerto</t>
+          <t>Párerer</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="120" ht="15" customHeight="1" s="3">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>ambosio</t>
+          <t>ambosto</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -1791,7 +1791,7 @@
     <row r="121" ht="15" customHeight="1" s="3">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>paricre</t>
+          <t>paricer</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
     <row r="130" ht="15" customHeight="1" s="3">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>amorsio</t>
+          <t>amorser</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="137" ht="15" customHeight="1" s="3">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>anestre</t>
+          <t>anestio</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -1995,7 +1995,7 @@
     <row r="138" ht="15" customHeight="1" s="3">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>prersre</t>
+          <t>prersto</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -2355,7 +2355,7 @@
     <row r="168" ht="15" customHeight="1" s="3">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>argntre</t>
+          <t>argntio</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -2367,7 +2367,7 @@
     <row r="169" ht="15" customHeight="1" s="3">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>bracito</t>
+          <t>braciio</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="171" ht="15" customHeight="1" s="3">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>patmio</t>
+          <t>patmto</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="178" ht="15" customHeight="1" s="3">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>regquio</t>
+          <t>regqure</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -2775,7 +2775,7 @@
     <row r="203" ht="15" customHeight="1" s="3">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>lusccer</t>
+          <t>lusccre</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
@@ -2811,7 +2811,7 @@
     <row r="206" ht="15" customHeight="1" s="3">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>ataurto</t>
+          <t>ataurio</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -2823,7 +2823,7 @@
     <row r="207" ht="15" customHeight="1" s="3">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>aprurto</t>
+          <t>aprurre</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -2847,7 +2847,7 @@
     <row r="209" ht="15" customHeight="1" s="3">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>tierrer</t>
+          <t>tierrio</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -2919,7 +2919,7 @@
     <row r="215" ht="15" customHeight="1" s="3">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>capesto</t>
+          <t>capeser</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
@@ -3027,7 +3027,7 @@
     <row r="224" ht="15" customHeight="1" s="3">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>avanter</t>
+          <t>avantto</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -3087,7 +3087,7 @@
     <row r="229" ht="15" customHeight="1" s="3">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>aveerio</t>
+          <t>aveerre</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -3111,7 +3111,7 @@
     <row r="231" ht="15" customHeight="1" s="3">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>cieecto</t>
+          <t>cieecre</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -3135,7 +3135,7 @@
     <row r="233" ht="15" customHeight="1" s="3">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>peralre</t>
+          <t>peraler</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
@@ -3159,7 +3159,7 @@
     <row r="235" ht="15" customHeight="1" s="3">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>veciner</t>
+          <t>vecinre</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
@@ -3207,7 +3207,7 @@
     <row r="239" ht="15" customHeight="1" s="3">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>bacevto</t>
+          <t>bacever</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
@@ -3219,7 +3219,7 @@
     <row r="240" ht="15" customHeight="1" s="3">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>cepolto</t>
+          <t>cepolre</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -3555,7 +3555,7 @@
     <row r="268" ht="15" customHeight="1" s="3">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>baratio</t>
+          <t>baratre</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -3591,7 +3591,7 @@
     <row r="271" ht="15" customHeight="1" s="3">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>quiinio</t>
+          <t>quiinto</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
@@ -3627,7 +3627,7 @@
     <row r="274" ht="15" customHeight="1" s="3">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>Baundio</t>
+          <t>Baundre</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
@@ -3639,7 +3639,7 @@
     <row r="275" ht="15" customHeight="1" s="3">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>chaatio</t>
+          <t>chaatto</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="277" ht="15" customHeight="1" s="3">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>bazzaer</t>
+          <t>bazzato</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -3723,7 +3723,7 @@
     <row r="282" ht="15" customHeight="1" s="3">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>cerrrre</t>
+          <t>cerrrer</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -3735,7 +3735,7 @@
     <row r="283" ht="15" customHeight="1" s="3">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>begntto</t>
+          <t>begntio</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
@@ -3783,7 +3783,7 @@
     <row r="287" ht="15" customHeight="1" s="3">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>meier</t>
+          <t>meiio</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
@@ -3795,7 +3795,7 @@
     <row r="288" ht="15" customHeight="1" s="3">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>rociio</t>
+          <t>rocito</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="292" ht="15" customHeight="1" s="3">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>manrrer</t>
+          <t>manrrto</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
@@ -3915,7 +3915,7 @@
     <row r="298" ht="15" customHeight="1" s="3">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>carilto</t>
+          <t>carilio</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
@@ -3927,7 +3927,7 @@
     <row r="299" ht="15" customHeight="1" s="3">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>betumio</t>
+          <t>betumto</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -3975,7 +3975,7 @@
     <row r="303" ht="15" customHeight="1" s="3">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>cullpre</t>
+          <t>cullpio</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -4047,7 +4047,7 @@
     <row r="309" ht="15" customHeight="1" s="3">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>bluufre</t>
+          <t>bluufer</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -4107,7 +4107,7 @@
     <row r="314" ht="15" customHeight="1" s="3">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>Bueerio</t>
+          <t>Bueerto</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -4155,7 +4155,7 @@
     <row r="318" ht="15" customHeight="1" s="3">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>hebbire</t>
+          <t>hebbiio</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
@@ -4179,7 +4179,7 @@
     <row r="320" ht="15" customHeight="1" s="3">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>borssio</t>
+          <t>borsser</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="321" ht="15" customHeight="1" s="3">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>amoonio</t>
+          <t>amoonto</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -4215,7 +4215,7 @@
     <row r="323" ht="15" customHeight="1" s="3">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>movrser</t>
+          <t>movrsre</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
@@ -4251,7 +4251,7 @@
     <row r="326" ht="15" customHeight="1" s="3">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>burllto</t>
+          <t>burllio</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
@@ -4299,7 +4299,7 @@
     <row r="330" ht="15" customHeight="1" s="3">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>coser</t>
+          <t>cosio</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
@@ -4323,7 +4323,7 @@
     <row r="332" ht="15" customHeight="1" s="3">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>ajeilre</t>
+          <t>ajeilto</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
@@ -4347,7 +4347,7 @@
     <row r="334" ht="15" customHeight="1" s="3">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>botliio</t>
+          <t>botlito</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="340" ht="15" customHeight="1" s="3">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>hacrser</t>
+          <t>hacrsre</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
@@ -4479,7 +4479,7 @@
     <row r="345" ht="15" customHeight="1" s="3">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>brilito</t>
+          <t>briliio</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
@@ -4515,7 +4515,7 @@
     <row r="348" ht="15" customHeight="1" s="3">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>antalre</t>
+          <t>antaler</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
@@ -4539,7 +4539,7 @@
     <row r="350" ht="15" customHeight="1" s="3">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>herllre</t>
+          <t>herllio</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
@@ -4563,7 +4563,7 @@
     <row r="352" ht="15" customHeight="1" s="3">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>cepolre</t>
+          <t>cepoler</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
@@ -4575,7 +4575,7 @@
     <row r="353" ht="15" customHeight="1" s="3">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>difurer</t>
+          <t>difurio</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
@@ -4611,7 +4611,7 @@
     <row r="356" ht="15" customHeight="1" s="3">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>maroner</t>
+          <t>maronre</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
@@ -4659,7 +4659,7 @@
     <row r="360" ht="15" customHeight="1" s="3">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>apostio</t>
+          <t>aposter</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
@@ -4683,7 +4683,7 @@
     <row r="362" ht="15" customHeight="1" s="3">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>árbcaer</t>
+          <t>árbcare</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="363" ht="15" customHeight="1" s="3">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>árbcare</t>
+          <t>árbcaio</t>
         </is>
       </c>
       <c r="B363" s="2" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="365" ht="15" customHeight="1" s="3">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>selcer</t>
+          <t>selcto</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
@@ -4743,7 +4743,7 @@
     <row r="367" ht="15" customHeight="1" s="3">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>cuainre</t>
+          <t>cuainio</t>
         </is>
       </c>
       <c r="B367" s="2" t="inlineStr">
@@ -4827,7 +4827,7 @@
     <row r="374" ht="15" customHeight="1" s="3">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>parller</t>
+          <t>parllto</t>
         </is>
       </c>
       <c r="B374" s="2" t="inlineStr">
@@ -4887,7 +4887,7 @@
     <row r="379" ht="15" customHeight="1" s="3">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>calicto</t>
+          <t>calicio</t>
         </is>
       </c>
       <c r="B379" s="2" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="381" ht="15" customHeight="1" s="3">
       <c r="A381" s="2" t="inlineStr">
         <is>
-          <t>camioer</t>
+          <t>camiore</t>
         </is>
       </c>
       <c r="B381" s="2" t="inlineStr">
@@ -4935,7 +4935,7 @@
     <row r="383" ht="15" customHeight="1" s="3">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>embarto</t>
+          <t>embarre</t>
         </is>
       </c>
       <c r="B383" s="2" t="inlineStr">
@@ -4947,7 +4947,7 @@
     <row r="384" ht="15" customHeight="1" s="3">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>canenre</t>
+          <t>canenio</t>
         </is>
       </c>
       <c r="B384" s="2" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="386" ht="15" customHeight="1" s="3">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>cáncrio</t>
+          <t>cáncrer</t>
         </is>
       </c>
       <c r="B386" s="2" t="inlineStr">
@@ -4983,7 +4983,7 @@
     <row r="387" ht="15" customHeight="1" s="3">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>canoler</t>
+          <t>canolto</t>
         </is>
       </c>
       <c r="B387" s="2" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="392" ht="15" customHeight="1" s="3">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>carntio</t>
+          <t>carntre</t>
         </is>
       </c>
       <c r="B392" s="2" t="inlineStr">
@@ -5067,7 +5067,7 @@
     <row r="394" ht="15" customHeight="1" s="3">
       <c r="A394" s="2" t="inlineStr">
         <is>
-          <t>carzzto</t>
+          <t>carzzer</t>
         </is>
       </c>
       <c r="B394" s="2" t="inlineStr">
@@ -5079,7 +5079,7 @@
     <row r="395" ht="15" customHeight="1" s="3">
       <c r="A395" s="2" t="inlineStr">
         <is>
-          <t>carorer</t>
+          <t>carorio</t>
         </is>
       </c>
       <c r="B395" s="2" t="inlineStr">
@@ -5223,7 +5223,7 @@
     <row r="407" ht="15" customHeight="1" s="3">
       <c r="A407" s="2" t="inlineStr">
         <is>
-          <t>apaner</t>
+          <t>apanto</t>
         </is>
       </c>
       <c r="B407" s="2" t="inlineStr">
@@ -5235,7 +5235,7 @@
     <row r="408" ht="15" customHeight="1" s="3">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t>cainer</t>
+          <t>cainio</t>
         </is>
       </c>
       <c r="B408" s="2" t="inlineStr">
@@ -5367,7 +5367,7 @@
     <row r="419" ht="15" customHeight="1" s="3">
       <c r="A419" s="2" t="inlineStr">
         <is>
-          <t>desntto</t>
+          <t>desntio</t>
         </is>
       </c>
       <c r="B419" s="2" t="inlineStr">
@@ -5451,7 +5451,7 @@
     <row r="426" ht="15" customHeight="1" s="3">
       <c r="A426" s="2" t="inlineStr">
         <is>
-          <t>sitonre</t>
+          <t>sitonto</t>
         </is>
       </c>
       <c r="B426" s="2" t="inlineStr">
@@ -5463,7 +5463,7 @@
     <row r="427" ht="15" customHeight="1" s="3">
       <c r="A427" s="2" t="inlineStr">
         <is>
-          <t>carrier</t>
+          <t>carrire</t>
         </is>
       </c>
       <c r="B427" s="2" t="inlineStr">
@@ -5535,7 +5535,7 @@
     <row r="433" ht="15" customHeight="1" s="3">
       <c r="A433" s="2" t="inlineStr">
         <is>
-          <t>cazcier</t>
+          <t>cazcire</t>
         </is>
       </c>
       <c r="B433" s="2" t="inlineStr">
@@ -5571,7 +5571,7 @@
     <row r="436" ht="15" customHeight="1" s="3">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>cosicre</t>
+          <t>cosicer</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
@@ -5655,7 +5655,7 @@
     <row r="443" ht="15" customHeight="1" s="3">
       <c r="A443" s="2" t="inlineStr">
         <is>
-          <t>bluttto</t>
+          <t>bluttre</t>
         </is>
       </c>
       <c r="B443" s="2" t="inlineStr">
@@ -5667,7 +5667,7 @@
     <row r="444" ht="15" customHeight="1" s="3">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>carrio</t>
+          <t>carrre</t>
         </is>
       </c>
       <c r="B444" s="2" t="inlineStr">
@@ -5691,7 +5691,7 @@
     <row r="446" ht="15" customHeight="1" s="3">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>aprrire</t>
+          <t>aprrito</t>
         </is>
       </c>
       <c r="B446" s="2" t="inlineStr">
@@ -5751,7 +5751,7 @@
     <row r="451" ht="15" customHeight="1" s="3">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>chierto</t>
+          <t>chierre</t>
         </is>
       </c>
       <c r="B451" s="2" t="inlineStr">
@@ -5823,7 +5823,7 @@
     <row r="457" ht="15" customHeight="1" s="3">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>agaeder</t>
+          <t>agaedre</t>
         </is>
       </c>
       <c r="B457" s="2" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="458" ht="15" customHeight="1" s="3">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>cuppio</t>
+          <t>cuppto</t>
         </is>
       </c>
       <c r="B458" s="2" t="inlineStr">
@@ -5871,7 +5871,7 @@
     <row r="461" ht="15" customHeight="1" s="3">
       <c r="A461" s="2" t="inlineStr">
         <is>
-          <t>criorer</t>
+          <t>criorio</t>
         </is>
       </c>
       <c r="B461" s="2" t="inlineStr">
@@ -5895,7 +5895,7 @@
     <row r="463" ht="15" customHeight="1" s="3">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>susrrto</t>
+          <t>susrrer</t>
         </is>
       </c>
       <c r="B463" s="2" t="inlineStr">
@@ -5907,7 +5907,7 @@
     <row r="464" ht="15" customHeight="1" s="3">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>cannio</t>
+          <t>cannto</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
@@ -5931,7 +5931,7 @@
     <row r="466" ht="15" customHeight="1" s="3">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>parlito</t>
+          <t>parlire</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
@@ -6027,7 +6027,7 @@
     <row r="474" ht="15" customHeight="1" s="3">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>chazzio</t>
+          <t>chazzer</t>
         </is>
       </c>
       <c r="B474" s="2" t="inlineStr">
@@ -6087,7 +6087,7 @@
     <row r="479" ht="15" customHeight="1" s="3">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>tecerre</t>
+          <t>tecerto</t>
         </is>
       </c>
       <c r="B479" s="2" t="inlineStr">
@@ -6099,7 +6099,7 @@
     <row r="480" ht="15" customHeight="1" s="3">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>parliio</t>
+          <t>parlier</t>
         </is>
       </c>
       <c r="B480" s="2" t="inlineStr">
@@ -6111,7 +6111,7 @@
     <row r="481" ht="15" customHeight="1" s="3">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>desocre</t>
+          <t>desocer</t>
         </is>
       </c>
       <c r="B481" s="2" t="inlineStr">
@@ -6135,7 +6135,7 @@
     <row r="483" ht="15" customHeight="1" s="3">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>camrier</t>
+          <t>camriio</t>
         </is>
       </c>
       <c r="B483" s="2" t="inlineStr">
@@ -6171,7 +6171,7 @@
     <row r="486" ht="15" customHeight="1" s="3">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>claoder</t>
+          <t>claodto</t>
         </is>
       </c>
       <c r="B486" s="2" t="inlineStr">
@@ -6255,7 +6255,7 @@
     <row r="493" ht="15" customHeight="1" s="3">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>cointre</t>
+          <t>cointio</t>
         </is>
       </c>
       <c r="B493" s="2" t="inlineStr">
@@ -6495,7 +6495,7 @@
     <row r="513" ht="15" customHeight="1" s="3">
       <c r="A513" s="2" t="inlineStr">
         <is>
-          <t>halrsio</t>
+          <t>halrser</t>
         </is>
       </c>
       <c r="B513" s="2" t="inlineStr">
@@ -6579,7 +6579,7 @@
     <row r="520" ht="15" customHeight="1" s="3">
       <c r="A520" s="2" t="inlineStr">
         <is>
-          <t>obliver</t>
+          <t>oblivto</t>
         </is>
       </c>
       <c r="B520" s="2" t="inlineStr">
@@ -6603,7 +6603,7 @@
     <row r="522" ht="15" customHeight="1" s="3">
       <c r="A522" s="2" t="inlineStr">
         <is>
-          <t>aplzzre</t>
+          <t>aplzzio</t>
         </is>
       </c>
       <c r="B522" s="2" t="inlineStr">
@@ -6615,7 +6615,7 @@
     <row r="523" ht="15" customHeight="1" s="3">
       <c r="A523" s="2" t="inlineStr">
         <is>
-          <t>cononre</t>
+          <t>cononer</t>
         </is>
       </c>
       <c r="B523" s="2" t="inlineStr">
@@ -6627,7 +6627,7 @@
     <row r="524" ht="15" customHeight="1" s="3">
       <c r="A524" s="2" t="inlineStr">
         <is>
-          <t>enfocio</t>
+          <t>enfocre</t>
         </is>
       </c>
       <c r="B524" s="2" t="inlineStr">
@@ -6747,7 +6747,7 @@
     <row r="534" ht="15" customHeight="1" s="3">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>conntto</t>
+          <t>connter</t>
         </is>
       </c>
       <c r="B534" s="2" t="inlineStr">
@@ -6831,7 +6831,7 @@
     <row r="541" ht="15" customHeight="1" s="3">
       <c r="A541" s="2" t="inlineStr">
         <is>
-          <t>comorio</t>
+          <t>comorre</t>
         </is>
       </c>
       <c r="B541" s="2" t="inlineStr">
@@ -6951,7 +6951,7 @@
     <row r="551" ht="15" customHeight="1" s="3">
       <c r="A551" s="2" t="inlineStr">
         <is>
-          <t>connsio</t>
+          <t>connsre</t>
         </is>
       </c>
       <c r="B551" s="2" t="inlineStr">
@@ -6963,7 +6963,7 @@
     <row r="552" ht="15" customHeight="1" s="3">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>prervto</t>
+          <t>prervre</t>
         </is>
       </c>
       <c r="B552" s="2" t="inlineStr">
@@ -6975,7 +6975,7 @@
     <row r="553" ht="15" customHeight="1" s="3">
       <c r="A553" s="2" t="inlineStr">
         <is>
-          <t>cononto</t>
+          <t>cononer</t>
         </is>
       </c>
       <c r="B553" s="2" t="inlineStr">
@@ -6987,7 +6987,7 @@
     <row r="554" ht="15" customHeight="1" s="3">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>conllio</t>
+          <t>conllto</t>
         </is>
       </c>
       <c r="B554" s="2" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="557" ht="15" customHeight="1" s="3">
       <c r="A557" s="2" t="inlineStr">
         <is>
-          <t>aviiser</t>
+          <t>aviisto</t>
         </is>
       </c>
       <c r="B557" s="2" t="inlineStr">
@@ -7155,7 +7155,7 @@
     <row r="568" ht="15" customHeight="1" s="3">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>desidio</t>
+          <t>desidto</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
@@ -7179,7 +7179,7 @@
     <row r="570" ht="15" customHeight="1" s="3">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>lleirre</t>
+          <t>lleirto</t>
         </is>
       </c>
       <c r="B570" s="2" t="inlineStr">
@@ -7275,7 +7275,7 @@
     <row r="578" ht="15" customHeight="1" s="3">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>Conorer</t>
+          <t>Conorre</t>
         </is>
       </c>
       <c r="B578" s="2" t="inlineStr">
@@ -7287,7 +7287,7 @@
     <row r="579" ht="15" customHeight="1" s="3">
       <c r="A579" s="2" t="inlineStr">
         <is>
-          <t>conrser</t>
+          <t>conrsre</t>
         </is>
       </c>
       <c r="B579" s="2" t="inlineStr">
@@ -7359,7 +7359,7 @@
     <row r="585" ht="15" customHeight="1" s="3">
       <c r="A585" s="2" t="inlineStr">
         <is>
-          <t>conivio</t>
+          <t>coniver</t>
         </is>
       </c>
       <c r="B585" s="2" t="inlineStr">
@@ -7395,7 +7395,7 @@
     <row r="588" ht="15" customHeight="1" s="3">
       <c r="A588" s="2" t="inlineStr">
         <is>
-          <t>copicer</t>
+          <t>copicio</t>
         </is>
       </c>
       <c r="B588" s="2" t="inlineStr">
@@ -7443,7 +7443,7 @@
     <row r="592" ht="15" customHeight="1" s="3">
       <c r="A592" s="2" t="inlineStr">
         <is>
-          <t>corivre</t>
+          <t>corivio</t>
         </is>
       </c>
       <c r="B592" s="2" t="inlineStr">
@@ -7455,7 +7455,7 @@
     <row r="593" ht="15" customHeight="1" s="3">
       <c r="A593" s="2" t="inlineStr">
         <is>
-          <t>plaoner</t>
+          <t>plaonre</t>
         </is>
       </c>
       <c r="B593" s="2" t="inlineStr">
@@ -7515,7 +7515,7 @@
     <row r="598" ht="15" customHeight="1" s="3">
       <c r="A598" s="2" t="inlineStr">
         <is>
-          <t>desivre</t>
+          <t>desiver</t>
         </is>
       </c>
       <c r="B598" s="2" t="inlineStr">
@@ -7551,7 +7551,7 @@
     <row r="601" ht="15" customHeight="1" s="3">
       <c r="A601" s="2" t="inlineStr">
         <is>
-          <t>corinio</t>
+          <t>corinre</t>
         </is>
       </c>
       <c r="B601" s="2" t="inlineStr">
@@ -7587,7 +7587,7 @@
     <row r="604" ht="15" customHeight="1" s="3">
       <c r="A604" s="2" t="inlineStr">
         <is>
-          <t>corstio</t>
+          <t>corstre</t>
         </is>
       </c>
       <c r="B604" s="2" t="inlineStr">
@@ -7659,7 +7659,7 @@
     <row r="610" ht="15" customHeight="1" s="3">
       <c r="A610" s="2" t="inlineStr">
         <is>
-          <t>modstio</t>
+          <t>modstto</t>
         </is>
       </c>
       <c r="B610" s="2" t="inlineStr">
@@ -7671,7 +7671,7 @@
     <row r="611" ht="15" customHeight="1" s="3">
       <c r="A611" s="2" t="inlineStr">
         <is>
-          <t>cratto</t>
+          <t>crater</t>
         </is>
       </c>
       <c r="B611" s="2" t="inlineStr">
@@ -7683,7 +7683,7 @@
     <row r="612" ht="15" customHeight="1" s="3">
       <c r="A612" s="2" t="inlineStr">
         <is>
-          <t>cubinio</t>
+          <t>cubiner</t>
         </is>
       </c>
       <c r="B612" s="2" t="inlineStr">
@@ -7707,7 +7707,7 @@
     <row r="614" ht="15" customHeight="1" s="3">
       <c r="A614" s="2" t="inlineStr">
         <is>
-          <t>pegrsto</t>
+          <t>pegrsio</t>
         </is>
       </c>
       <c r="B614" s="2" t="inlineStr">
@@ -7743,7 +7743,7 @@
     <row r="617" ht="15" customHeight="1" s="3">
       <c r="A617" s="2" t="inlineStr">
         <is>
-          <t>griepio</t>
+          <t>griepto</t>
         </is>
       </c>
       <c r="B617" s="2" t="inlineStr">
@@ -7779,7 +7779,7 @@
     <row r="620" ht="15" customHeight="1" s="3">
       <c r="A620" s="2" t="inlineStr">
         <is>
-          <t>griepto</t>
+          <t>griepio</t>
         </is>
       </c>
       <c r="B620" s="2" t="inlineStr">
@@ -7791,7 +7791,7 @@
     <row r="621" ht="15" customHeight="1" s="3">
       <c r="A621" s="2" t="inlineStr">
         <is>
-          <t>atrosre</t>
+          <t>atrosto</t>
         </is>
       </c>
       <c r="B621" s="2" t="inlineStr">
@@ -7863,7 +7863,7 @@
     <row r="627" ht="15" customHeight="1" s="3">
       <c r="A627" s="2" t="inlineStr">
         <is>
-          <t>másntio</t>
+          <t>másntto</t>
         </is>
       </c>
       <c r="B627" s="2" t="inlineStr">
@@ -7899,7 +7899,7 @@
     <row r="630" ht="15" customHeight="1" s="3">
       <c r="A630" s="2" t="inlineStr">
         <is>
-          <t>crrsio</t>
+          <t>crrser</t>
         </is>
       </c>
       <c r="B630" s="2" t="inlineStr">
@@ -7935,7 +7935,7 @@
     <row r="633" ht="15" customHeight="1" s="3">
       <c r="A633" s="2" t="inlineStr">
         <is>
-          <t>cuber</t>
+          <t>cubre</t>
         </is>
       </c>
       <c r="B633" s="2" t="inlineStr">
@@ -8043,7 +8043,7 @@
     <row r="642" ht="15" customHeight="1" s="3">
       <c r="A642" s="2" t="inlineStr">
         <is>
-          <t>currre</t>
+          <t>currer</t>
         </is>
       </c>
       <c r="B642" s="2" t="inlineStr">
@@ -8055,7 +8055,7 @@
     <row r="643" ht="15" customHeight="1" s="3">
       <c r="A643" s="2" t="inlineStr">
         <is>
-          <t>digrser</t>
+          <t>digrsre</t>
         </is>
       </c>
       <c r="B643" s="2" t="inlineStr">
@@ -8079,7 +8079,7 @@
     <row r="645" ht="15" customHeight="1" s="3">
       <c r="A645" s="2" t="inlineStr">
         <is>
-          <t>valller</t>
+          <t>valllto</t>
         </is>
       </c>
       <c r="B645" s="2" t="inlineStr">
@@ -8115,7 +8115,7 @@
     <row r="648" ht="15" customHeight="1" s="3">
       <c r="A648" s="2" t="inlineStr">
         <is>
-          <t>másario</t>
+          <t>másarto</t>
         </is>
       </c>
       <c r="B648" s="2" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="649" ht="15" customHeight="1" s="3">
       <c r="A649" s="2" t="inlineStr">
         <is>
-          <t>fectio</t>
+          <t>fectto</t>
         </is>
       </c>
       <c r="B649" s="2" t="inlineStr">
@@ -8139,7 +8139,7 @@
     <row r="650" ht="15" customHeight="1" s="3">
       <c r="A650" s="2" t="inlineStr">
         <is>
-          <t>palerer</t>
+          <t>palerto</t>
         </is>
       </c>
       <c r="B650" s="2" t="inlineStr">
@@ -8271,7 +8271,7 @@
     <row r="661" ht="15" customHeight="1" s="3">
       <c r="A661" s="2" t="inlineStr">
         <is>
-          <t>desinre</t>
+          <t>desiner</t>
         </is>
       </c>
       <c r="B661" s="2" t="inlineStr">
@@ -8319,7 +8319,7 @@
     <row r="665" ht="15" customHeight="1" s="3">
       <c r="A665" s="2" t="inlineStr">
         <is>
-          <t>desrsio</t>
+          <t>desrser</t>
         </is>
       </c>
       <c r="B665" s="2" t="inlineStr">
@@ -8343,7 +8343,7 @@
     <row r="667" ht="15" customHeight="1" s="3">
       <c r="A667" s="2" t="inlineStr">
         <is>
-          <t>debnter</t>
+          <t>debntto</t>
         </is>
       </c>
       <c r="B667" s="2" t="inlineStr">
@@ -8511,7 +8511,7 @@
     <row r="681" ht="15" customHeight="1" s="3">
       <c r="A681" s="2" t="inlineStr">
         <is>
-          <t>debbbio</t>
+          <t>debbbre</t>
         </is>
       </c>
       <c r="B681" s="2" t="inlineStr">
@@ -8583,7 +8583,7 @@
     <row r="687" ht="15" customHeight="1" s="3">
       <c r="A687" s="2" t="inlineStr">
         <is>
-          <t>decntto</t>
+          <t>decntio</t>
         </is>
       </c>
       <c r="B687" s="2" t="inlineStr">
@@ -8619,7 +8619,7 @@
     <row r="690" ht="15" customHeight="1" s="3">
       <c r="A690" s="2" t="inlineStr">
         <is>
-          <t>decntto</t>
+          <t>decnter</t>
         </is>
       </c>
       <c r="B690" s="2" t="inlineStr">
@@ -8643,7 +8643,7 @@
     <row r="692" ht="15" customHeight="1" s="3">
       <c r="A692" s="2" t="inlineStr">
         <is>
-          <t>desntio</t>
+          <t>desntto</t>
         </is>
       </c>
       <c r="B692" s="2" t="inlineStr">
@@ -8691,7 +8691,7 @@
     <row r="696" ht="15" customHeight="1" s="3">
       <c r="A696" s="2" t="inlineStr">
         <is>
-          <t>desnter</t>
+          <t>desntio</t>
         </is>
       </c>
       <c r="B696" s="2" t="inlineStr">
@@ -8859,7 +8859,7 @@
     <row r="710" ht="15" customHeight="1" s="3">
       <c r="A710" s="2" t="inlineStr">
         <is>
-          <t>deslato</t>
+          <t>deslaio</t>
         </is>
       </c>
       <c r="B710" s="2" t="inlineStr">
@@ -8907,7 +8907,7 @@
     <row r="714" ht="15" customHeight="1" s="3">
       <c r="A714" s="2" t="inlineStr">
         <is>
-          <t>desodto</t>
+          <t>desodio</t>
         </is>
       </c>
       <c r="B714" s="2" t="inlineStr">
@@ -9003,7 +9003,7 @@
     <row r="722" ht="15" customHeight="1" s="3">
       <c r="A722" s="2" t="inlineStr">
         <is>
-          <t>degerto</t>
+          <t>degerer</t>
         </is>
       </c>
       <c r="B722" s="2" t="inlineStr">
@@ -9051,7 +9051,7 @@
     <row r="726" ht="15" customHeight="1" s="3">
       <c r="A726" s="2" t="inlineStr">
         <is>
-          <t>desouer</t>
+          <t>desoure</t>
         </is>
       </c>
       <c r="B726" s="2" t="inlineStr">
@@ -9087,7 +9087,7 @@
     <row r="729" ht="15" customHeight="1" s="3">
       <c r="A729" s="2" t="inlineStr">
         <is>
-          <t>desssio</t>
+          <t>dessser</t>
         </is>
       </c>
       <c r="B729" s="2" t="inlineStr">
@@ -9135,7 +9135,7 @@
     <row r="733" ht="15" customHeight="1" s="3">
       <c r="A733" s="2" t="inlineStr">
         <is>
-          <t>comnzio</t>
+          <t>comnzto</t>
         </is>
       </c>
       <c r="B733" s="2" t="inlineStr">
@@ -9207,7 +9207,7 @@
     <row r="739" ht="15" customHeight="1" s="3">
       <c r="A739" s="2" t="inlineStr">
         <is>
-          <t>entgner</t>
+          <t>entgnio</t>
         </is>
       </c>
       <c r="B739" s="2" t="inlineStr">
@@ -9327,7 +9327,7 @@
     <row r="749" ht="15" customHeight="1" s="3">
       <c r="A749" s="2" t="inlineStr">
         <is>
-          <t>resonre</t>
+          <t>resoner</t>
         </is>
       </c>
       <c r="B749" s="2" t="inlineStr">
@@ -9531,7 +9531,7 @@
     <row r="766" ht="15" customHeight="1" s="3">
       <c r="A766" s="2" t="inlineStr">
         <is>
-          <t>frontto</t>
+          <t>frontio</t>
         </is>
       </c>
       <c r="B766" s="2" t="inlineStr">
@@ -9615,7 +9615,7 @@
     <row r="773" ht="15" customHeight="1" s="3">
       <c r="A773" s="2" t="inlineStr">
         <is>
-          <t>trantto</t>
+          <t>tranter</t>
         </is>
       </c>
       <c r="B773" s="2" t="inlineStr">
@@ -9663,7 +9663,7 @@
     <row r="777" ht="15" customHeight="1" s="3">
       <c r="A777" s="2" t="inlineStr">
         <is>
-          <t>repanre</t>
+          <t>repanio</t>
         </is>
       </c>
       <c r="B777" s="2" t="inlineStr">
@@ -9675,7 +9675,7 @@
     <row r="778" ht="15" customHeight="1" s="3">
       <c r="A778" s="2" t="inlineStr">
         <is>
-          <t>depicer</t>
+          <t>depicio</t>
         </is>
       </c>
       <c r="B778" s="2" t="inlineStr">
@@ -9735,7 +9735,7 @@
     <row r="783" ht="15" customHeight="1" s="3">
       <c r="A783" s="2" t="inlineStr">
         <is>
-          <t>bancire</t>
+          <t>banciio</t>
         </is>
       </c>
       <c r="B783" s="2" t="inlineStr">
@@ -9771,7 +9771,7 @@
     <row r="786" ht="15" customHeight="1" s="3">
       <c r="A786" s="2" t="inlineStr">
         <is>
-          <t>depsser</t>
+          <t>depssio</t>
         </is>
       </c>
       <c r="B786" s="2" t="inlineStr">
@@ -9807,7 +9807,7 @@
     <row r="789" ht="15" customHeight="1" s="3">
       <c r="A789" s="2" t="inlineStr">
         <is>
-          <t>eto</t>
+          <t>eio</t>
         </is>
       </c>
       <c r="B789" s="2" t="inlineStr">
@@ -9867,7 +9867,7 @@
     <row r="794" ht="15" customHeight="1" s="3">
       <c r="A794" s="2" t="inlineStr">
         <is>
-          <t>esaoler</t>
+          <t>esaolre</t>
         </is>
       </c>
       <c r="B794" s="2" t="inlineStr">
@@ -9975,7 +9975,7 @@
     <row r="803" ht="15" customHeight="1" s="3">
       <c r="A803" s="2" t="inlineStr">
         <is>
-          <t>desrser</t>
+          <t>desrsto</t>
         </is>
       </c>
       <c r="B803" s="2" t="inlineStr">
@@ -10011,7 +10011,7 @@
     <row r="806" ht="15" customHeight="1" s="3">
       <c r="A806" s="2" t="inlineStr">
         <is>
-          <t>deszzer</t>
+          <t>deszzio</t>
         </is>
       </c>
       <c r="B806" s="2" t="inlineStr">
@@ -10047,7 +10047,7 @@
     <row r="809" ht="15" customHeight="1" s="3">
       <c r="A809" s="2" t="inlineStr">
         <is>
-          <t>desoner</t>
+          <t>desonto</t>
         </is>
       </c>
       <c r="B809" s="2" t="inlineStr">
@@ -10107,7 +10107,7 @@
     <row r="814" ht="15" customHeight="1" s="3">
       <c r="A814" s="2" t="inlineStr">
         <is>
-          <t>desonre</t>
+          <t>desonto</t>
         </is>
       </c>
       <c r="B814" s="2" t="inlineStr">
@@ -10119,7 +10119,7 @@
     <row r="815" ht="15" customHeight="1" s="3">
       <c r="A815" s="2" t="inlineStr">
         <is>
-          <t>desrsio</t>
+          <t>desrser</t>
         </is>
       </c>
       <c r="B815" s="2" t="inlineStr">
@@ -10131,7 +10131,7 @@
     <row r="816" ht="15" customHeight="1" s="3">
       <c r="A816" s="2" t="inlineStr">
         <is>
-          <t>desssre</t>
+          <t>dessser</t>
         </is>
       </c>
       <c r="B816" s="2" t="inlineStr">
@@ -10155,7 +10155,7 @@
     <row r="818" ht="15" customHeight="1" s="3">
       <c r="A818" s="2" t="inlineStr">
         <is>
-          <t>desntre</t>
+          <t>desntto</t>
         </is>
       </c>
       <c r="B818" s="2" t="inlineStr">
@@ -10239,7 +10239,7 @@
     <row r="825" ht="15" customHeight="1" s="3">
       <c r="A825" s="2" t="inlineStr">
         <is>
-          <t>dibgnto</t>
+          <t>dibgner</t>
         </is>
       </c>
       <c r="B825" s="2" t="inlineStr">
@@ -10263,7 +10263,7 @@
     <row r="827" ht="15" customHeight="1" s="3">
       <c r="A827" s="2" t="inlineStr">
         <is>
-          <t>deszzto</t>
+          <t>deszzio</t>
         </is>
       </c>
       <c r="B827" s="2" t="inlineStr">
@@ -10323,7 +10323,7 @@
     <row r="832" ht="15" customHeight="1" s="3">
       <c r="A832" s="2" t="inlineStr">
         <is>
-          <t>detglre</t>
+          <t>detgler</t>
         </is>
       </c>
       <c r="B832" s="2" t="inlineStr">
@@ -10371,7 +10371,7 @@
     <row r="836" ht="15" customHeight="1" s="3">
       <c r="A836" s="2" t="inlineStr">
         <is>
-          <t>detnter</t>
+          <t>detntio</t>
         </is>
       </c>
       <c r="B836" s="2" t="inlineStr">
@@ -10383,7 +10383,7 @@
     <row r="837" ht="15" customHeight="1" s="3">
       <c r="A837" s="2" t="inlineStr">
         <is>
-          <t>disntto</t>
+          <t>disnter</t>
         </is>
       </c>
       <c r="B837" s="2" t="inlineStr">
@@ -10467,7 +10467,7 @@
     <row r="844" ht="15" customHeight="1" s="3">
       <c r="A844" s="2" t="inlineStr">
         <is>
-          <t>vamamto</t>
+          <t>vamamio</t>
         </is>
       </c>
       <c r="B844" s="2" t="inlineStr">
@@ -10479,7 +10479,7 @@
     <row r="845" ht="15" customHeight="1" s="3">
       <c r="A845" s="2" t="inlineStr">
         <is>
-          <t>devvare</t>
+          <t>devvaio</t>
         </is>
       </c>
       <c r="B845" s="2" t="inlineStr">
@@ -10527,7 +10527,7 @@
     <row r="849" ht="15" customHeight="1" s="3">
       <c r="A849" s="2" t="inlineStr">
         <is>
-          <t>salnter</t>
+          <t>salntio</t>
         </is>
       </c>
       <c r="B849" s="2" t="inlineStr">
@@ -10587,7 +10587,7 @@
     <row r="854" ht="15" customHeight="1" s="3">
       <c r="A854" s="2" t="inlineStr">
         <is>
-          <t>derorto</t>
+          <t>derorer</t>
         </is>
       </c>
       <c r="B854" s="2" t="inlineStr">
@@ -10599,7 +10599,7 @@
     <row r="855" ht="15" customHeight="1" s="3">
       <c r="A855" s="2" t="inlineStr">
         <is>
-          <t>devtiio</t>
+          <t>devtire</t>
         </is>
       </c>
       <c r="B855" s="2" t="inlineStr">
@@ -10731,7 +10731,7 @@
     <row r="866" ht="15" customHeight="1" s="3">
       <c r="A866" s="2" t="inlineStr">
         <is>
-          <t>diáogio</t>
+          <t>diáogto</t>
         </is>
       </c>
       <c r="B866" s="2" t="inlineStr">
@@ -10743,7 +10743,7 @@
     <row r="867" ht="15" customHeight="1" s="3">
       <c r="A867" s="2" t="inlineStr">
         <is>
-          <t>enobier</t>
+          <t>enobire</t>
         </is>
       </c>
       <c r="B867" s="2" t="inlineStr">
@@ -10791,7 +10791,7 @@
     <row r="871" ht="15" customHeight="1" s="3">
       <c r="A871" s="2" t="inlineStr">
         <is>
-          <t>difrsio</t>
+          <t>difrsto</t>
         </is>
       </c>
       <c r="B871" s="2" t="inlineStr">
@@ -10863,7 +10863,7 @@
     <row r="877" ht="15" customHeight="1" s="3">
       <c r="A877" s="2" t="inlineStr">
         <is>
-          <t>cenio</t>
+          <t>cenre</t>
         </is>
       </c>
       <c r="B877" s="2" t="inlineStr">
@@ -11043,7 +11043,7 @@
     <row r="892" ht="15" customHeight="1" s="3">
       <c r="A892" s="2" t="inlineStr">
         <is>
-          <t>disnzto</t>
+          <t>disnzio</t>
         </is>
       </c>
       <c r="B892" s="2" t="inlineStr">
@@ -11103,7 +11103,7 @@
     <row r="897" ht="15" customHeight="1" s="3">
       <c r="A897" s="2" t="inlineStr">
         <is>
-          <t>divitto</t>
+          <t>diviter</t>
         </is>
       </c>
       <c r="B897" s="2" t="inlineStr">
@@ -11151,7 +11151,7 @@
     <row r="901" ht="15" customHeight="1" s="3">
       <c r="A901" s="2" t="inlineStr">
         <is>
-          <t>estilre</t>
+          <t>estilto</t>
         </is>
       </c>
       <c r="B901" s="2" t="inlineStr">
@@ -11235,7 +11235,7 @@
     <row r="908" ht="15" customHeight="1" s="3">
       <c r="A908" s="2" t="inlineStr">
         <is>
-          <t>dornner</t>
+          <t>dornnio</t>
         </is>
       </c>
       <c r="B908" s="2" t="inlineStr">
@@ -11271,7 +11271,7 @@
     <row r="911" ht="15" customHeight="1" s="3">
       <c r="A911" s="2" t="inlineStr">
         <is>
-          <t>dosolre</t>
+          <t>dosolio</t>
         </is>
       </c>
       <c r="B911" s="2" t="inlineStr">
@@ -11295,7 +11295,7 @@
     <row r="913" ht="15" customHeight="1" s="3">
       <c r="A913" s="2" t="inlineStr">
         <is>
-          <t>ofialto</t>
+          <t>ofialre</t>
         </is>
       </c>
       <c r="B913" s="2" t="inlineStr">
@@ -11355,7 +11355,7 @@
     <row r="918" ht="15" customHeight="1" s="3">
       <c r="A918" s="2" t="inlineStr">
         <is>
-          <t>vesstio</t>
+          <t>vesstto</t>
         </is>
       </c>
       <c r="B918" s="2" t="inlineStr">
@@ -11379,7 +11379,7 @@
     <row r="920" ht="15" customHeight="1" s="3">
       <c r="A920" s="2" t="inlineStr">
         <is>
-          <t>dierser</t>
+          <t>diersto</t>
         </is>
       </c>
       <c r="B920" s="2" t="inlineStr">
@@ -11427,7 +11427,7 @@
     <row r="924" ht="15" customHeight="1" s="3">
       <c r="A924" s="2" t="inlineStr">
         <is>
-          <t>durrsto</t>
+          <t>durrsio</t>
         </is>
       </c>
       <c r="B924" s="2" t="inlineStr">
@@ -11487,7 +11487,7 @@
     <row r="929" ht="15" customHeight="1" s="3">
       <c r="A929" s="2" t="inlineStr">
         <is>
-          <t>ebluier</t>
+          <t>ebluiio</t>
         </is>
       </c>
       <c r="B929" s="2" t="inlineStr">
@@ -11547,7 +11547,7 @@
     <row r="934" ht="15" customHeight="1" s="3">
       <c r="A934" s="2" t="inlineStr">
         <is>
-          <t>escgio</t>
+          <t>escgre</t>
         </is>
       </c>
       <c r="B934" s="2" t="inlineStr">
@@ -11643,7 +11643,7 @@
     <row r="942" ht="15" customHeight="1" s="3">
       <c r="A942" s="2" t="inlineStr">
         <is>
-          <t>cerurto</t>
+          <t>cerurio</t>
         </is>
       </c>
       <c r="B942" s="2" t="inlineStr">
@@ -11703,7 +11703,7 @@
     <row r="947" ht="15" customHeight="1" s="3">
       <c r="A947" s="2" t="inlineStr">
         <is>
-          <t>esctcre</t>
+          <t>esctcio</t>
         </is>
       </c>
       <c r="B947" s="2" t="inlineStr">
@@ -11859,7 +11859,7 @@
     <row r="960" ht="15" customHeight="1" s="3">
       <c r="A960" s="2" t="inlineStr">
         <is>
-          <t>tocccer</t>
+          <t>tocccre</t>
         </is>
       </c>
       <c r="B960" s="2" t="inlineStr">
@@ -11955,7 +11955,7 @@
     <row r="968" ht="15" customHeight="1" s="3">
       <c r="A968" s="2" t="inlineStr">
         <is>
-          <t>gartter</t>
+          <t>garttto</t>
         </is>
       </c>
       <c r="B968" s="2" t="inlineStr">
@@ -12003,7 +12003,7 @@
     <row r="972" ht="15" customHeight="1" s="3">
       <c r="A972" s="2" t="inlineStr">
         <is>
-          <t>estntto</t>
+          <t>estntre</t>
         </is>
       </c>
       <c r="B972" s="2" t="inlineStr">
@@ -12039,7 +12039,7 @@
     <row r="975" ht="15" customHeight="1" s="3">
       <c r="A975" s="2" t="inlineStr">
         <is>
-          <t>eloiger</t>
+          <t>eloigre</t>
         </is>
       </c>
       <c r="B975" s="2" t="inlineStr">
@@ -12147,7 +12147,7 @@
     <row r="984" ht="15" customHeight="1" s="3">
       <c r="A984" s="2" t="inlineStr">
         <is>
-          <t>embrser</t>
+          <t>embrsio</t>
         </is>
       </c>
       <c r="B984" s="2" t="inlineStr">
@@ -12195,7 +12195,7 @@
     <row r="988" ht="15" customHeight="1" s="3">
       <c r="A988" s="2" t="inlineStr">
         <is>
-          <t>lifacto</t>
+          <t>lifacer</t>
         </is>
       </c>
       <c r="B988" s="2" t="inlineStr">
@@ -12207,7 +12207,7 @@
     <row r="989" ht="15" customHeight="1" s="3">
       <c r="A989" s="2" t="inlineStr">
         <is>
-          <t>ofiicer</t>
+          <t>ofiicre</t>
         </is>
       </c>
       <c r="B989" s="2" t="inlineStr">
@@ -12243,7 +12243,7 @@
     <row r="992" ht="15" customHeight="1" s="3">
       <c r="A992" s="2" t="inlineStr">
         <is>
-          <t>premmto</t>
+          <t>premmre</t>
         </is>
       </c>
       <c r="B992" s="2" t="inlineStr">
@@ -12267,7 +12267,7 @@
     <row r="994" ht="15" customHeight="1" s="3">
       <c r="A994" s="2" t="inlineStr">
         <is>
-          <t>conusto</t>
+          <t>conusre</t>
         </is>
       </c>
       <c r="B994" s="2" t="inlineStr">
@@ -12291,7 +12291,7 @@
     <row r="996" ht="15" customHeight="1" s="3">
       <c r="A996" s="2" t="inlineStr">
         <is>
-          <t>prelito</t>
+          <t>preliio</t>
         </is>
       </c>
       <c r="B996" s="2" t="inlineStr">
@@ -12339,7 +12339,7 @@
     <row r="1000" ht="15" customHeight="1" s="3">
       <c r="A1000" s="2" t="inlineStr">
         <is>
-          <t>llevier</t>
+          <t>lleviio</t>
         </is>
       </c>
       <c r="B1000" s="2" t="inlineStr">
@@ -12375,7 +12375,7 @@
     <row r="1003" ht="15" customHeight="1" s="3">
       <c r="A1003" s="2" t="inlineStr">
         <is>
-          <t>movssre</t>
+          <t>movssto</t>
         </is>
       </c>
       <c r="B1003" s="2" t="inlineStr">
@@ -12423,7 +12423,7 @@
     <row r="1007" ht="15" customHeight="1" s="3">
       <c r="A1007" s="2" t="inlineStr">
         <is>
-          <t>pilio</t>
+          <t>pilre</t>
         </is>
       </c>
       <c r="B1007" s="2" t="inlineStr">
@@ -12459,7 +12459,7 @@
     <row r="1010" ht="15" customHeight="1" s="3">
       <c r="A1010" s="2" t="inlineStr">
         <is>
-          <t>emporer</t>
+          <t>emporio</t>
         </is>
       </c>
       <c r="B1010" s="2" t="inlineStr">
@@ -12483,7 +12483,7 @@
     <row r="1012" ht="15" customHeight="1" s="3">
       <c r="A1012" s="2" t="inlineStr">
         <is>
-          <t>lleviio</t>
+          <t>llevito</t>
         </is>
       </c>
       <c r="B1012" s="2" t="inlineStr">
@@ -12495,7 +12495,7 @@
     <row r="1013" ht="15" customHeight="1" s="3">
       <c r="A1013" s="2" t="inlineStr">
         <is>
-          <t>a loner</t>
+          <t>a lonio</t>
         </is>
       </c>
       <c r="B1013" s="2" t="inlineStr">
@@ -12579,7 +12579,7 @@
     <row r="1020" ht="15" customHeight="1" s="3">
       <c r="A1020" s="2" t="inlineStr">
         <is>
-          <t>Mieuler</t>
+          <t>Mieulre</t>
         </is>
       </c>
       <c r="B1020" s="2" t="inlineStr">
@@ -12603,7 +12603,7 @@
     <row r="1022" ht="15" customHeight="1" s="3">
       <c r="A1022" s="2" t="inlineStr">
         <is>
-          <t>caunnio</t>
+          <t>caunnto</t>
         </is>
       </c>
       <c r="B1022" s="2" t="inlineStr">
@@ -12663,7 +12663,7 @@
     <row r="1027" ht="15" customHeight="1" s="3">
       <c r="A1027" s="2" t="inlineStr">
         <is>
-          <t>infrnre</t>
+          <t>infrnio</t>
         </is>
       </c>
       <c r="B1027" s="2" t="inlineStr">
@@ -12675,7 +12675,7 @@
     <row r="1028" ht="15" customHeight="1" s="3">
       <c r="A1028" s="2" t="inlineStr">
         <is>
-          <t>encaver</t>
+          <t>encavre</t>
         </is>
       </c>
       <c r="B1028" s="2" t="inlineStr">
@@ -12903,7 +12903,7 @@
     <row r="1047" ht="15" customHeight="1" s="3">
       <c r="A1047" s="2" t="inlineStr">
         <is>
-          <t>enldier</t>
+          <t>enldito</t>
         </is>
       </c>
       <c r="B1047" s="2" t="inlineStr">
@@ -12963,7 +12963,7 @@
     <row r="1052" ht="15" customHeight="1" s="3">
       <c r="A1052" s="2" t="inlineStr">
         <is>
-          <t>proeler</t>
+          <t>proelto</t>
         </is>
       </c>
       <c r="B1052" s="2" t="inlineStr">
@@ -13083,7 +13083,7 @@
     <row r="1062" ht="15" customHeight="1" s="3">
       <c r="A1062" s="2" t="inlineStr">
         <is>
-          <t>manonio</t>
+          <t>manonto</t>
         </is>
       </c>
       <c r="B1062" s="2" t="inlineStr">
@@ -13095,7 +13095,7 @@
     <row r="1063" ht="15" customHeight="1" s="3">
       <c r="A1063" s="2" t="inlineStr">
         <is>
-          <t>mueccto</t>
+          <t>mueccre</t>
         </is>
       </c>
       <c r="B1063" s="2" t="inlineStr">
@@ -13155,7 +13155,7 @@
     <row r="1068" ht="15" customHeight="1" s="3">
       <c r="A1068" s="2" t="inlineStr">
         <is>
-          <t>comerio</t>
+          <t>comerto</t>
         </is>
       </c>
       <c r="B1068" s="2" t="inlineStr">
@@ -13275,7 +13275,7 @@
     <row r="1078" ht="15" customHeight="1" s="3">
       <c r="A1078" s="2" t="inlineStr">
         <is>
-          <t>visatto</t>
+          <t>visater</t>
         </is>
       </c>
       <c r="B1078" s="2" t="inlineStr">
@@ -13335,7 +13335,7 @@
     <row r="1083" ht="15" customHeight="1" s="3">
       <c r="A1083" s="2" t="inlineStr">
         <is>
-          <t>envenre</t>
+          <t>envento</t>
         </is>
       </c>
       <c r="B1083" s="2" t="inlineStr">
@@ -13347,7 +13347,7 @@
     <row r="1084" ht="15" customHeight="1" s="3">
       <c r="A1084" s="2" t="inlineStr">
         <is>
-          <t>envdier</t>
+          <t>envdiio</t>
         </is>
       </c>
       <c r="B1084" s="2" t="inlineStr">
@@ -13431,7 +13431,7 @@
     <row r="1091" ht="15" customHeight="1" s="3">
       <c r="A1091" s="2" t="inlineStr">
         <is>
-          <t>chaerre</t>
+          <t>chaerto</t>
         </is>
       </c>
       <c r="B1091" s="2" t="inlineStr">
@@ -13443,7 +13443,7 @@
     <row r="1092" ht="15" customHeight="1" s="3">
       <c r="A1092" s="2" t="inlineStr">
         <is>
-          <t>hallcer</t>
+          <t>hallcre</t>
         </is>
       </c>
       <c r="B1092" s="2" t="inlineStr">
@@ -13455,7 +13455,7 @@
     <row r="1093" ht="15" customHeight="1" s="3">
       <c r="A1093" s="2" t="inlineStr">
         <is>
-          <t>épiicre</t>
+          <t>épiicto</t>
         </is>
       </c>
       <c r="B1093" s="2" t="inlineStr">
@@ -13491,7 +13491,7 @@
     <row r="1096" ht="15" customHeight="1" s="3">
       <c r="A1096" s="2" t="inlineStr">
         <is>
-          <t>epileio</t>
+          <t>epilere</t>
         </is>
       </c>
       <c r="B1096" s="2" t="inlineStr">
@@ -13575,7 +13575,7 @@
     <row r="1103" ht="15" customHeight="1" s="3">
       <c r="A1103" s="2" t="inlineStr">
         <is>
-          <t>escicto</t>
+          <t>escicer</t>
         </is>
       </c>
       <c r="B1103" s="2" t="inlineStr">
@@ -13647,7 +13647,7 @@
     <row r="1109" ht="15" customHeight="1" s="3">
       <c r="A1109" s="2" t="inlineStr">
         <is>
-          <t>hominto</t>
+          <t>hominio</t>
         </is>
       </c>
       <c r="B1109" s="2" t="inlineStr">
@@ -13671,7 +13671,7 @@
     <row r="1111" ht="15" customHeight="1" s="3">
       <c r="A1111" s="2" t="inlineStr">
         <is>
-          <t>corutio</t>
+          <t>corutto</t>
         </is>
       </c>
       <c r="B1111" s="2" t="inlineStr">
@@ -13695,7 +13695,7 @@
     <row r="1113" ht="15" customHeight="1" s="3">
       <c r="A1113" s="2" t="inlineStr">
         <is>
-          <t>erooder</t>
+          <t>eroodre</t>
         </is>
       </c>
       <c r="B1113" s="2" t="inlineStr">
@@ -13731,7 +13731,7 @@
     <row r="1116" ht="15" customHeight="1" s="3">
       <c r="A1116" s="2" t="inlineStr">
         <is>
-          <t>escalio</t>
+          <t>escaler</t>
         </is>
       </c>
       <c r="B1116" s="2" t="inlineStr">
@@ -13755,7 +13755,7 @@
     <row r="1118" ht="15" customHeight="1" s="3">
       <c r="A1118" s="2" t="inlineStr">
         <is>
-          <t>acoorto</t>
+          <t>acoorio</t>
         </is>
       </c>
       <c r="B1118" s="2" t="inlineStr">
@@ -13791,7 +13791,7 @@
     <row r="1121" ht="15" customHeight="1" s="3">
       <c r="A1121" s="2" t="inlineStr">
         <is>
-          <t>espnzto</t>
+          <t>espnzre</t>
         </is>
       </c>
       <c r="B1121" s="2" t="inlineStr">
@@ -13815,7 +13815,7 @@
     <row r="1123" ht="15" customHeight="1" s="3">
       <c r="A1123" s="2" t="inlineStr">
         <is>
-          <t>espnzre</t>
+          <t>espnzto</t>
         </is>
       </c>
       <c r="B1123" s="2" t="inlineStr">
@@ -13887,7 +13887,7 @@
     <row r="1129" ht="15" customHeight="1" s="3">
       <c r="A1129" s="2" t="inlineStr">
         <is>
-          <t>esterre</t>
+          <t>esterer</t>
         </is>
       </c>
       <c r="B1129" s="2" t="inlineStr">
@@ -13911,7 +13911,7 @@
     <row r="1131" ht="15" customHeight="1" s="3">
       <c r="A1131" s="2" t="inlineStr">
         <is>
-          <t>estpito</t>
+          <t>estpire</t>
         </is>
       </c>
       <c r="B1131" s="2" t="inlineStr">
@@ -13935,7 +13935,7 @@
     <row r="1133" ht="15" customHeight="1" s="3">
       <c r="A1133" s="2" t="inlineStr">
         <is>
-          <t>extoner</t>
+          <t>extonio</t>
         </is>
       </c>
       <c r="B1133" s="2" t="inlineStr">
@@ -13947,7 +13947,7 @@
     <row r="1134" ht="15" customHeight="1" s="3">
       <c r="A1134" s="2" t="inlineStr">
         <is>
-          <t>etáerre</t>
+          <t>etáerer</t>
         </is>
       </c>
       <c r="B1134" s="2" t="inlineStr">
@@ -13959,7 +13959,7 @@
     <row r="1135" ht="15" customHeight="1" s="3">
       <c r="A1135" s="2" t="inlineStr">
         <is>
-          <t>selcto</t>
+          <t>selcio</t>
         </is>
       </c>
       <c r="B1135" s="2" t="inlineStr">
@@ -14007,7 +14007,7 @@
     <row r="1139" ht="15" customHeight="1" s="3">
       <c r="A1139" s="2" t="inlineStr">
         <is>
-          <t>estatio</t>
+          <t>estatre</t>
         </is>
       </c>
       <c r="B1139" s="2" t="inlineStr">
@@ -14019,7 +14019,7 @@
     <row r="1140" ht="15" customHeight="1" s="3">
       <c r="A1140" s="2" t="inlineStr">
         <is>
-          <t>soresre</t>
+          <t>soreser</t>
         </is>
       </c>
       <c r="B1140" s="2" t="inlineStr">
@@ -14151,7 +14151,7 @@
     <row r="1151" ht="15" customHeight="1" s="3">
       <c r="A1151" s="2" t="inlineStr">
         <is>
-          <t>hunllio</t>
+          <t>hunllto</t>
         </is>
       </c>
       <c r="B1151" s="2" t="inlineStr">
@@ -14463,7 +14463,7 @@
     <row r="1177" ht="15" customHeight="1" s="3">
       <c r="A1177" s="2" t="inlineStr">
         <is>
-          <t>expntio</t>
+          <t>expnter</t>
         </is>
       </c>
       <c r="B1177" s="2" t="inlineStr">
@@ -14475,7 +14475,7 @@
     <row r="1178" ht="15" customHeight="1" s="3">
       <c r="A1178" s="2" t="inlineStr">
         <is>
-          <t>exponre</t>
+          <t>exponto</t>
         </is>
       </c>
       <c r="B1178" s="2" t="inlineStr">
@@ -14547,7 +14547,7 @@
     <row r="1184" ht="15" customHeight="1" s="3">
       <c r="A1184" s="2" t="inlineStr">
         <is>
-          <t>expesre</t>
+          <t>expesio</t>
         </is>
       </c>
       <c r="B1184" s="2" t="inlineStr">
@@ -14631,7 +14631,7 @@
     <row r="1191" ht="15" customHeight="1" s="3">
       <c r="A1191" s="2" t="inlineStr">
         <is>
-          <t>exprgio</t>
+          <t>exprgre</t>
         </is>
       </c>
       <c r="B1191" s="2" t="inlineStr">
@@ -14715,7 +14715,7 @@
     <row r="1198" ht="15" customHeight="1" s="3">
       <c r="A1198" s="2" t="inlineStr">
         <is>
-          <t>asittre</t>
+          <t>asitter</t>
         </is>
       </c>
       <c r="B1198" s="2" t="inlineStr">
@@ -14739,7 +14739,7 @@
     <row r="1200" ht="15" customHeight="1" s="3">
       <c r="A1200" s="2" t="inlineStr">
         <is>
-          <t>forrmer</t>
+          <t>forrmre</t>
         </is>
       </c>
       <c r="B1200" s="2" t="inlineStr">
@@ -14787,7 +14787,7 @@
     <row r="1204" ht="15" customHeight="1" s="3">
       <c r="A1204" s="2" t="inlineStr">
         <is>
-          <t>necgnto</t>
+          <t>necgner</t>
         </is>
       </c>
       <c r="B1204" s="2" t="inlineStr">
@@ -14823,7 +14823,7 @@
     <row r="1207" ht="15" customHeight="1" s="3">
       <c r="A1207" s="2" t="inlineStr">
         <is>
-          <t>banerre</t>
+          <t>banerer</t>
         </is>
       </c>
       <c r="B1207" s="2" t="inlineStr">
@@ -14859,7 +14859,7 @@
     <row r="1210" ht="15" customHeight="1" s="3">
       <c r="A1210" s="2" t="inlineStr">
         <is>
-          <t>másanto</t>
+          <t>másaner</t>
         </is>
       </c>
       <c r="B1210" s="2" t="inlineStr">
@@ -14979,7 +14979,7 @@
     <row r="1220" ht="15" customHeight="1" s="3">
       <c r="A1220" s="2" t="inlineStr">
         <is>
-          <t>errorer</t>
+          <t>errorio</t>
         </is>
       </c>
       <c r="B1220" s="2" t="inlineStr">
@@ -14991,7 +14991,7 @@
     <row r="1221" ht="15" customHeight="1" s="3">
       <c r="A1221" s="2" t="inlineStr">
         <is>
-          <t>exissto</t>
+          <t>exissre</t>
         </is>
       </c>
       <c r="B1221" s="2" t="inlineStr">
@@ -15051,7 +15051,7 @@
     <row r="1226" ht="15" customHeight="1" s="3">
       <c r="A1226" s="2" t="inlineStr">
         <is>
-          <t>agrinto</t>
+          <t>agrinio</t>
         </is>
       </c>
       <c r="B1226" s="2" t="inlineStr">
@@ -15075,7 +15075,7 @@
     <row r="1228" ht="15" customHeight="1" s="3">
       <c r="A1228" s="2" t="inlineStr">
         <is>
-          <t>ferntre</t>
+          <t>ferntio</t>
         </is>
       </c>
       <c r="B1228" s="2" t="inlineStr">
@@ -15099,7 +15099,7 @@
     <row r="1230" ht="15" customHeight="1" s="3">
       <c r="A1230" s="2" t="inlineStr">
         <is>
-          <t>banstto</t>
+          <t>banstre</t>
         </is>
       </c>
       <c r="B1230" s="2" t="inlineStr">
@@ -15135,7 +15135,7 @@
     <row r="1233" ht="15" customHeight="1" s="3">
       <c r="A1233" s="2" t="inlineStr">
         <is>
-          <t>FEBAIer</t>
+          <t>FEBAIto</t>
         </is>
       </c>
       <c r="B1233" s="2" t="inlineStr">
@@ -15147,7 +15147,7 @@
     <row r="1234" ht="15" customHeight="1" s="3">
       <c r="A1234" s="2" t="inlineStr">
         <is>
-          <t>comrsto</t>
+          <t>comrsre</t>
         </is>
       </c>
       <c r="B1234" s="2" t="inlineStr">
@@ -15171,7 +15171,7 @@
     <row r="1236" ht="15" customHeight="1" s="3">
       <c r="A1236" s="2" t="inlineStr">
         <is>
-          <t>arcler</t>
+          <t>arclio</t>
         </is>
       </c>
       <c r="B1236" s="2" t="inlineStr">
@@ -15207,7 +15207,7 @@
     <row r="1239" ht="15" customHeight="1" s="3">
       <c r="A1239" s="2" t="inlineStr">
         <is>
-          <t>árbchto</t>
+          <t>árbcher</t>
         </is>
       </c>
       <c r="B1239" s="2" t="inlineStr">
@@ -15243,7 +15243,7 @@
     <row r="1242" ht="15" customHeight="1" s="3">
       <c r="A1242" s="2" t="inlineStr">
         <is>
-          <t>pellio</t>
+          <t>pellre</t>
         </is>
       </c>
       <c r="B1242" s="2" t="inlineStr">
@@ -15267,7 +15267,7 @@
     <row r="1244" ht="15" customHeight="1" s="3">
       <c r="A1244" s="2" t="inlineStr">
         <is>
-          <t>filtrto</t>
+          <t>filtrer</t>
         </is>
       </c>
       <c r="B1244" s="2" t="inlineStr">
@@ -15279,7 +15279,7 @@
     <row r="1245" ht="15" customHeight="1" s="3">
       <c r="A1245" s="2" t="inlineStr">
         <is>
-          <t>finnzto</t>
+          <t>finnzre</t>
         </is>
       </c>
       <c r="B1245" s="2" t="inlineStr">
@@ -15303,7 +15303,7 @@
     <row r="1247" ht="15" customHeight="1" s="3">
       <c r="A1247" s="2" t="inlineStr">
         <is>
-          <t>terner</t>
+          <t>ternio</t>
         </is>
       </c>
       <c r="B1247" s="2" t="inlineStr">
@@ -15339,7 +15339,7 @@
     <row r="1250" ht="15" customHeight="1" s="3">
       <c r="A1250" s="2" t="inlineStr">
         <is>
-          <t>griepre</t>
+          <t>griepio</t>
         </is>
       </c>
       <c r="B1250" s="2" t="inlineStr">
@@ -15375,7 +15375,7 @@
     <row r="1253" ht="15" customHeight="1" s="3">
       <c r="A1253" s="2" t="inlineStr">
         <is>
-          <t>astrnio</t>
+          <t>astrnre</t>
         </is>
       </c>
       <c r="B1253" s="2" t="inlineStr">
@@ -15387,7 +15387,7 @@
     <row r="1254" ht="15" customHeight="1" s="3">
       <c r="A1254" s="2" t="inlineStr">
         <is>
-          <t>insilio</t>
+          <t>insilto</t>
         </is>
       </c>
       <c r="B1254" s="2" t="inlineStr">
@@ -15411,7 +15411,7 @@
     <row r="1256" ht="15" customHeight="1" s="3">
       <c r="A1256" s="2" t="inlineStr">
         <is>
-          <t>resater</t>
+          <t>resatre</t>
         </is>
       </c>
       <c r="B1256" s="2" t="inlineStr">
@@ -15423,7 +15423,7 @@
     <row r="1257" ht="15" customHeight="1" s="3">
       <c r="A1257" s="2" t="inlineStr">
         <is>
-          <t>flantre</t>
+          <t>flantto</t>
         </is>
       </c>
       <c r="B1257" s="2" t="inlineStr">
@@ -15447,7 +15447,7 @@
     <row r="1259" ht="15" customHeight="1" s="3">
       <c r="A1259" s="2" t="inlineStr">
         <is>
-          <t>flancto</t>
+          <t>flancer</t>
         </is>
       </c>
       <c r="B1259" s="2" t="inlineStr">
@@ -15531,7 +15531,7 @@
     <row r="1266" ht="15" customHeight="1" s="3">
       <c r="A1266" s="2" t="inlineStr">
         <is>
-          <t>flontre</t>
+          <t>flontto</t>
         </is>
       </c>
       <c r="B1266" s="2" t="inlineStr">
@@ -15603,7 +15603,7 @@
     <row r="1272" ht="15" customHeight="1" s="3">
       <c r="A1272" s="2" t="inlineStr">
         <is>
-          <t>funonio</t>
+          <t>funonto</t>
         </is>
       </c>
       <c r="B1272" s="2" t="inlineStr">
@@ -15615,7 +15615,7 @@
     <row r="1273" ht="15" customHeight="1" s="3">
       <c r="A1273" s="2" t="inlineStr">
         <is>
-          <t>carosto</t>
+          <t>caroser</t>
         </is>
       </c>
       <c r="B1273" s="2" t="inlineStr">
@@ -15639,7 +15639,7 @@
     <row r="1275" ht="15" customHeight="1" s="3">
       <c r="A1275" s="2" t="inlineStr">
         <is>
-          <t>forrzre</t>
+          <t>forrzto</t>
         </is>
       </c>
       <c r="B1275" s="2" t="inlineStr">
@@ -15651,7 +15651,7 @@
     <row r="1276" ht="15" customHeight="1" s="3">
       <c r="A1276" s="2" t="inlineStr">
         <is>
-          <t>priimer</t>
+          <t>priimio</t>
         </is>
       </c>
       <c r="B1276" s="2" t="inlineStr">
@@ -15663,7 +15663,7 @@
     <row r="1277" ht="15" customHeight="1" s="3">
       <c r="A1277" s="2" t="inlineStr">
         <is>
-          <t>SILURto</t>
+          <t>SILURio</t>
         </is>
       </c>
       <c r="B1277" s="2" t="inlineStr">
@@ -15687,7 +15687,7 @@
     <row r="1279" ht="15" customHeight="1" s="3">
       <c r="A1279" s="2" t="inlineStr">
         <is>
-          <t>antre</t>
+          <t>antio</t>
         </is>
       </c>
       <c r="B1279" s="2" t="inlineStr">
@@ -15723,7 +15723,7 @@
     <row r="1282" ht="15" customHeight="1" s="3">
       <c r="A1282" s="2" t="inlineStr">
         <is>
-          <t>fosrsio</t>
+          <t>fosrsre</t>
         </is>
       </c>
       <c r="B1282" s="2" t="inlineStr">
@@ -15807,7 +15807,7 @@
     <row r="1289" ht="15" customHeight="1" s="3">
       <c r="A1289" s="2" t="inlineStr">
         <is>
-          <t>enjamio</t>
+          <t>enjamer</t>
         </is>
       </c>
       <c r="B1289" s="2" t="inlineStr">
@@ -15855,7 +15855,7 @@
     <row r="1293" ht="15" customHeight="1" s="3">
       <c r="A1293" s="2" t="inlineStr">
         <is>
-          <t>ofitrio</t>
+          <t>ofitrer</t>
         </is>
       </c>
       <c r="B1293" s="2" t="inlineStr">
@@ -15867,7 +15867,7 @@
     <row r="1294" ht="15" customHeight="1" s="3">
       <c r="A1294" s="2" t="inlineStr">
         <is>
-          <t>desinio</t>
+          <t>desiner</t>
         </is>
       </c>
       <c r="B1294" s="2" t="inlineStr">
@@ -15903,7 +15903,7 @@
     <row r="1297" ht="15" customHeight="1" s="3">
       <c r="A1297" s="2" t="inlineStr">
         <is>
-          <t>fraurto</t>
+          <t>fraurre</t>
         </is>
       </c>
       <c r="B1297" s="2" t="inlineStr">
@@ -15915,7 +15915,7 @@
     <row r="1298" ht="15" customHeight="1" s="3">
       <c r="A1298" s="2" t="inlineStr">
         <is>
-          <t>molinto</t>
+          <t>molinio</t>
         </is>
       </c>
       <c r="B1298" s="2" t="inlineStr">
@@ -15927,7 +15927,7 @@
     <row r="1299" ht="15" customHeight="1" s="3">
       <c r="A1299" s="2" t="inlineStr">
         <is>
-          <t>arboner</t>
+          <t>arbonio</t>
         </is>
       </c>
       <c r="B1299" s="2" t="inlineStr">
@@ -15939,7 +15939,7 @@
     <row r="1300" ht="15" customHeight="1" s="3">
       <c r="A1300" s="2" t="inlineStr">
         <is>
-          <t>crrsio</t>
+          <t>crrsre</t>
         </is>
       </c>
       <c r="B1300" s="2" t="inlineStr">
@@ -15975,7 +15975,7 @@
     <row r="1303" ht="15" customHeight="1" s="3">
       <c r="A1303" s="2" t="inlineStr">
         <is>
-          <t>freener</t>
+          <t>freento</t>
         </is>
       </c>
       <c r="B1303" s="2" t="inlineStr">
@@ -16011,7 +16011,7 @@
     <row r="1306" ht="15" customHeight="1" s="3">
       <c r="A1306" s="2" t="inlineStr">
         <is>
-          <t>frentto</t>
+          <t>frenter</t>
         </is>
       </c>
       <c r="B1306" s="2" t="inlineStr">
@@ -16035,7 +16035,7 @@
     <row r="1308" ht="15" customHeight="1" s="3">
       <c r="A1308" s="2" t="inlineStr">
         <is>
-          <t>frierre</t>
+          <t>frierio</t>
         </is>
       </c>
       <c r="B1308" s="2" t="inlineStr">
@@ -16071,7 +16071,7 @@
     <row r="1311" ht="15" customHeight="1" s="3">
       <c r="A1311" s="2" t="inlineStr">
         <is>
-          <t>temider</t>
+          <t>temidre</t>
         </is>
       </c>
       <c r="B1311" s="2" t="inlineStr">
@@ -16107,7 +16107,7 @@
     <row r="1314" ht="15" customHeight="1" s="3">
       <c r="A1314" s="2" t="inlineStr">
         <is>
-          <t>frursio</t>
+          <t>frursto</t>
         </is>
       </c>
       <c r="B1314" s="2" t="inlineStr">
@@ -16167,7 +16167,7 @@
     <row r="1319" ht="15" customHeight="1" s="3">
       <c r="A1319" s="2" t="inlineStr">
         <is>
-          <t>estamer</t>
+          <t>estamre</t>
         </is>
       </c>
       <c r="B1319" s="2" t="inlineStr">
@@ -16239,7 +16239,7 @@
     <row r="1325" ht="15" customHeight="1" s="3">
       <c r="A1325" s="2" t="inlineStr">
         <is>
-          <t>ganriio</t>
+          <t>ganrire</t>
         </is>
       </c>
       <c r="B1325" s="2" t="inlineStr">
@@ -16287,7 +16287,7 @@
     <row r="1329" ht="15" customHeight="1" s="3">
       <c r="A1329" s="2" t="inlineStr">
         <is>
-          <t>Desnsto</t>
+          <t>Desnser</t>
         </is>
       </c>
       <c r="B1329" s="2" t="inlineStr">
@@ -16311,7 +16311,7 @@
     <row r="1331" ht="15" customHeight="1" s="3">
       <c r="A1331" s="2" t="inlineStr">
         <is>
-          <t>aparcre</t>
+          <t>aparcto</t>
         </is>
       </c>
       <c r="B1331" s="2" t="inlineStr">
@@ -16335,7 +16335,7 @@
     <row r="1333" ht="15" customHeight="1" s="3">
       <c r="A1333" s="2" t="inlineStr">
         <is>
-          <t>guarnre</t>
+          <t>guarnio</t>
         </is>
       </c>
       <c r="B1333" s="2" t="inlineStr">
@@ -16563,7 +16563,7 @@
     <row r="1352" ht="15" customHeight="1" s="3">
       <c r="A1352" s="2" t="inlineStr">
         <is>
-          <t>bofffer</t>
+          <t>bofffto</t>
         </is>
       </c>
       <c r="B1352" s="2" t="inlineStr">
@@ -16575,7 +16575,7 @@
     <row r="1353" ht="15" customHeight="1" s="3">
       <c r="A1353" s="2" t="inlineStr">
         <is>
-          <t>agirsio</t>
+          <t>agirsto</t>
         </is>
       </c>
       <c r="B1353" s="2" t="inlineStr">
@@ -16635,7 +16635,7 @@
     <row r="1358" ht="15" customHeight="1" s="3">
       <c r="A1358" s="2" t="inlineStr">
         <is>
-          <t>glapiio</t>
+          <t>glapire</t>
         </is>
       </c>
       <c r="B1358" s="2" t="inlineStr">
@@ -16647,7 +16647,7 @@
     <row r="1359" ht="15" customHeight="1" s="3">
       <c r="A1359" s="2" t="inlineStr">
         <is>
-          <t>desivto</t>
+          <t>desivio</t>
         </is>
       </c>
       <c r="B1359" s="2" t="inlineStr">
@@ -16719,7 +16719,7 @@
     <row r="1365" ht="15" customHeight="1" s="3">
       <c r="A1365" s="2" t="inlineStr">
         <is>
-          <t>garler</t>
+          <t>garlre</t>
         </is>
       </c>
       <c r="B1365" s="2" t="inlineStr">
@@ -16755,7 +16755,7 @@
     <row r="1368" ht="15" customHeight="1" s="3">
       <c r="A1368" s="2" t="inlineStr">
         <is>
-          <t>prorsre</t>
+          <t>prorsio</t>
         </is>
       </c>
       <c r="B1368" s="2" t="inlineStr">
@@ -16791,7 +16791,7 @@
     <row r="1371" ht="15" customHeight="1" s="3">
       <c r="A1371" s="2" t="inlineStr">
         <is>
-          <t>industo</t>
+          <t>indusio</t>
         </is>
       </c>
       <c r="B1371" s="2" t="inlineStr">
@@ -16803,7 +16803,7 @@
     <row r="1372" ht="15" customHeight="1" s="3">
       <c r="A1372" s="2" t="inlineStr">
         <is>
-          <t>grasser</t>
+          <t>grassto</t>
         </is>
       </c>
       <c r="B1372" s="2" t="inlineStr">
@@ -16899,7 +16899,7 @@
     <row r="1380" ht="15" customHeight="1" s="3">
       <c r="A1380" s="2" t="inlineStr">
         <is>
-          <t>injoner</t>
+          <t>injonto</t>
         </is>
       </c>
       <c r="B1380" s="2" t="inlineStr">
@@ -16923,7 +16923,7 @@
     <row r="1382" ht="15" customHeight="1" s="3">
       <c r="A1382" s="2" t="inlineStr">
         <is>
-          <t>grentto</t>
+          <t>grentre</t>
         </is>
       </c>
       <c r="B1382" s="2" t="inlineStr">
@@ -16959,7 +16959,7 @@
     <row r="1385" ht="15" customHeight="1" s="3">
       <c r="A1385" s="2" t="inlineStr">
         <is>
-          <t>Parliio</t>
+          <t>Parlier</t>
         </is>
       </c>
       <c r="B1385" s="2" t="inlineStr">
@@ -16983,7 +16983,7 @@
     <row r="1387" ht="15" customHeight="1" s="3">
       <c r="A1387" s="2" t="inlineStr">
         <is>
-          <t>treatio</t>
+          <t>treatto</t>
         </is>
       </c>
       <c r="B1387" s="2" t="inlineStr">
@@ -16995,7 +16995,7 @@
     <row r="1388" ht="15" customHeight="1" s="3">
       <c r="A1388" s="2" t="inlineStr">
         <is>
-          <t>chiocio</t>
+          <t>chiocto</t>
         </is>
       </c>
       <c r="B1388" s="2" t="inlineStr">
@@ -17007,7 +17007,7 @@
     <row r="1389" ht="15" customHeight="1" s="3">
       <c r="A1389" s="2" t="inlineStr">
         <is>
-          <t>ceralio</t>
+          <t>ceralto</t>
         </is>
       </c>
       <c r="B1389" s="2" t="inlineStr">
@@ -17055,7 +17055,7 @@
     <row r="1393" ht="15" customHeight="1" s="3">
       <c r="A1393" s="2" t="inlineStr">
         <is>
-          <t>groaner</t>
+          <t>groanto</t>
         </is>
       </c>
       <c r="B1393" s="2" t="inlineStr">
@@ -17079,7 +17079,7 @@
     <row r="1395" ht="15" customHeight="1" s="3">
       <c r="A1395" s="2" t="inlineStr">
         <is>
-          <t>crendto</t>
+          <t>crendio</t>
         </is>
       </c>
       <c r="B1395" s="2" t="inlineStr">
@@ -17091,7 +17091,7 @@
     <row r="1396" ht="15" customHeight="1" s="3">
       <c r="A1396" s="2" t="inlineStr">
         <is>
-          <t>enjamio</t>
+          <t>enjamer</t>
         </is>
       </c>
       <c r="B1396" s="2" t="inlineStr">
@@ -17103,7 +17103,7 @@
     <row r="1397" ht="15" customHeight="1" s="3">
       <c r="A1397" s="2" t="inlineStr">
         <is>
-          <t>agrnito</t>
+          <t>agrnier</t>
         </is>
       </c>
       <c r="B1397" s="2" t="inlineStr">
@@ -17127,7 +17127,7 @@
     <row r="1399" ht="15" customHeight="1" s="3">
       <c r="A1399" s="2" t="inlineStr">
         <is>
-          <t>gueerto</t>
+          <t>gueerer</t>
         </is>
       </c>
       <c r="B1399" s="2" t="inlineStr">
@@ -17139,7 +17139,7 @@
     <row r="1400" ht="15" customHeight="1" s="3">
       <c r="A1400" s="2" t="inlineStr">
         <is>
-          <t>a lrrio</t>
+          <t>a lrrer</t>
         </is>
       </c>
       <c r="B1400" s="2" t="inlineStr">
@@ -17223,7 +17223,7 @@
     <row r="1407" ht="15" customHeight="1" s="3">
       <c r="A1407" s="2" t="inlineStr">
         <is>
-          <t>cabllto</t>
+          <t>cabllio</t>
         </is>
       </c>
       <c r="B1407" s="2" t="inlineStr">
@@ -17259,7 +17259,7 @@
     <row r="1410" ht="15" customHeight="1" s="3">
       <c r="A1410" s="2" t="inlineStr">
         <is>
-          <t>aluonto</t>
+          <t>aluonre</t>
         </is>
       </c>
       <c r="B1410" s="2" t="inlineStr">
@@ -17271,7 +17271,7 @@
     <row r="1411" ht="15" customHeight="1" s="3">
       <c r="A1411" s="2" t="inlineStr">
         <is>
-          <t>agaedto</t>
+          <t>agaedio</t>
         </is>
       </c>
       <c r="B1411" s="2" t="inlineStr">
@@ -17319,7 +17319,7 @@
     <row r="1415" ht="15" customHeight="1" s="3">
       <c r="A1415" s="2" t="inlineStr">
         <is>
-          <t>odidiio</t>
+          <t>odidier</t>
         </is>
       </c>
       <c r="B1415" s="2" t="inlineStr">
@@ -17343,7 +17343,7 @@
     <row r="1417" ht="15" customHeight="1" s="3">
       <c r="A1417" s="2" t="inlineStr">
         <is>
-          <t>anfitio</t>
+          <t>anfitto</t>
         </is>
       </c>
       <c r="B1417" s="2" t="inlineStr">
@@ -17367,7 +17367,7 @@
     <row r="1419" ht="15" customHeight="1" s="3">
       <c r="A1419" s="2" t="inlineStr">
         <is>
-          <t>cuscer</t>
+          <t>cuscre</t>
         </is>
       </c>
       <c r="B1419" s="2" t="inlineStr">
@@ -17391,7 +17391,7 @@
     <row r="1421" ht="15" customHeight="1" s="3">
       <c r="A1421" s="2" t="inlineStr">
         <is>
-          <t>hereder</t>
+          <t>heredto</t>
         </is>
       </c>
       <c r="B1421" s="2" t="inlineStr">
@@ -17439,7 +17439,7 @@
     <row r="1425" ht="15" customHeight="1" s="3">
       <c r="A1425" s="2" t="inlineStr">
         <is>
-          <t>aqto</t>
+          <t>aqer</t>
         </is>
       </c>
       <c r="B1425" s="2" t="inlineStr">
@@ -17487,7 +17487,7 @@
     <row r="1429" ht="15" customHeight="1" s="3">
       <c r="A1429" s="2" t="inlineStr">
         <is>
-          <t>asennre</t>
+          <t>asennio</t>
         </is>
       </c>
       <c r="B1429" s="2" t="inlineStr">
@@ -17499,7 +17499,7 @@
     <row r="1430" ht="15" customHeight="1" s="3">
       <c r="A1430" s="2" t="inlineStr">
         <is>
-          <t>Honicio</t>
+          <t>Honicto</t>
         </is>
       </c>
       <c r="B1430" s="2" t="inlineStr">
@@ -17511,7 +17511,7 @@
     <row r="1431" ht="15" customHeight="1" s="3">
       <c r="A1431" s="2" t="inlineStr">
         <is>
-          <t>es ento</t>
+          <t>es enio</t>
         </is>
       </c>
       <c r="B1431" s="2" t="inlineStr">
@@ -17535,7 +17535,7 @@
     <row r="1433" ht="15" customHeight="1" s="3">
       <c r="A1433" s="2" t="inlineStr">
         <is>
-          <t>hizzto</t>
+          <t>hizzio</t>
         </is>
       </c>
       <c r="B1433" s="2" t="inlineStr">
@@ -17559,7 +17559,7 @@
     <row r="1435" ht="15" customHeight="1" s="3">
       <c r="A1435" s="2" t="inlineStr">
         <is>
-          <t>hosalre</t>
+          <t>hosalio</t>
         </is>
       </c>
       <c r="B1435" s="2" t="inlineStr">
@@ -17883,7 +17883,7 @@
     <row r="1462" ht="15" customHeight="1" s="3">
       <c r="A1462" s="2" t="inlineStr">
         <is>
-          <t>impicre</t>
+          <t>impicto</t>
         </is>
       </c>
       <c r="B1462" s="2" t="inlineStr">
@@ -18087,7 +18087,7 @@
     <row r="1479" ht="15" customHeight="1" s="3">
       <c r="A1479" s="2" t="inlineStr">
         <is>
-          <t>caricer</t>
+          <t>caricre</t>
         </is>
       </c>
       <c r="B1479" s="2" t="inlineStr">
@@ -18123,7 +18123,7 @@
     <row r="1482" ht="15" customHeight="1" s="3">
       <c r="A1482" s="2" t="inlineStr">
         <is>
-          <t>Indonio</t>
+          <t>Indoner</t>
         </is>
       </c>
       <c r="B1482" s="2" t="inlineStr">
@@ -18171,7 +18171,7 @@
     <row r="1486" ht="15" customHeight="1" s="3">
       <c r="A1486" s="2" t="inlineStr">
         <is>
-          <t>infhier</t>
+          <t>infhito</t>
         </is>
       </c>
       <c r="B1486" s="2" t="inlineStr">
@@ -18231,7 +18231,7 @@
     <row r="1491" ht="15" customHeight="1" s="3">
       <c r="A1491" s="2" t="inlineStr">
         <is>
-          <t>trainer</t>
+          <t>trainre</t>
         </is>
       </c>
       <c r="B1491" s="2" t="inlineStr">
@@ -18303,7 +18303,7 @@
     <row r="1497" ht="15" customHeight="1" s="3">
       <c r="A1497" s="2" t="inlineStr">
         <is>
-          <t>difoner</t>
+          <t>difonio</t>
         </is>
       </c>
       <c r="B1497" s="2" t="inlineStr">
@@ -18327,7 +18327,7 @@
     <row r="1499" ht="15" customHeight="1" s="3">
       <c r="A1499" s="2" t="inlineStr">
         <is>
-          <t>inuoner</t>
+          <t>inuonio</t>
         </is>
       </c>
       <c r="B1499" s="2" t="inlineStr">
@@ -18519,7 +18519,7 @@
     <row r="1515" ht="15" customHeight="1" s="3">
       <c r="A1515" s="2" t="inlineStr">
         <is>
-          <t>intrnto</t>
+          <t>intrner</t>
         </is>
       </c>
       <c r="B1515" s="2" t="inlineStr">
@@ -18543,7 +18543,7 @@
     <row r="1517" ht="15" customHeight="1" s="3">
       <c r="A1517" s="2" t="inlineStr">
         <is>
-          <t>inteter</t>
+          <t>intetio</t>
         </is>
       </c>
       <c r="B1517" s="2" t="inlineStr">
@@ -18555,7 +18555,7 @@
     <row r="1518" ht="15" customHeight="1" s="3">
       <c r="A1518" s="2" t="inlineStr">
         <is>
-          <t>prendio</t>
+          <t>prendre</t>
         </is>
       </c>
       <c r="B1518" s="2" t="inlineStr">
@@ -18603,7 +18603,7 @@
     <row r="1522" ht="15" customHeight="1" s="3">
       <c r="A1522" s="2" t="inlineStr">
         <is>
-          <t>intiger</t>
+          <t>intigre</t>
         </is>
       </c>
       <c r="B1522" s="2" t="inlineStr">
@@ -18615,7 +18615,7 @@
     <row r="1523" ht="15" customHeight="1" s="3">
       <c r="A1523" s="2" t="inlineStr">
         <is>
-          <t>invivre</t>
+          <t>invivto</t>
         </is>
       </c>
       <c r="B1523" s="2" t="inlineStr">
@@ -18699,7 +18699,7 @@
     <row r="1530" ht="15" customHeight="1" s="3">
       <c r="A1530" s="2" t="inlineStr">
         <is>
-          <t>irrntre</t>
+          <t>irrntio</t>
         </is>
       </c>
       <c r="B1530" s="2" t="inlineStr">
@@ -18759,7 +18759,7 @@
     <row r="1535" ht="15" customHeight="1" s="3">
       <c r="A1535" s="2" t="inlineStr">
         <is>
-          <t>prierto</t>
+          <t>prierre</t>
         </is>
       </c>
       <c r="B1535" s="2" t="inlineStr">
@@ -18771,7 +18771,7 @@
     <row r="1536" ht="15" customHeight="1" s="3">
       <c r="A1536" s="2" t="inlineStr">
         <is>
-          <t>celosto</t>
+          <t>celosio</t>
         </is>
       </c>
       <c r="B1536" s="2" t="inlineStr">
@@ -18819,7 +18819,7 @@
     <row r="1540" ht="15" customHeight="1" s="3">
       <c r="A1540" s="2" t="inlineStr">
         <is>
-          <t>chaatre</t>
+          <t>chaatio</t>
         </is>
       </c>
       <c r="B1540" s="2" t="inlineStr">
@@ -18915,7 +18915,7 @@
     <row r="1548" ht="15" customHeight="1" s="3">
       <c r="A1548" s="2" t="inlineStr">
         <is>
-          <t>a danio</t>
+          <t>a danre</t>
         </is>
       </c>
       <c r="B1548" s="2" t="inlineStr">
@@ -19191,7 +19191,7 @@
     <row r="1571" ht="15" customHeight="1" s="3">
       <c r="A1571" s="2" t="inlineStr">
         <is>
-          <t>barccer</t>
+          <t>barccre</t>
         </is>
       </c>
       <c r="B1571" s="2" t="inlineStr">
@@ -19203,7 +19203,7 @@
     <row r="1572" ht="15" customHeight="1" s="3">
       <c r="A1572" s="2" t="inlineStr">
         <is>
-          <t>lágimto</t>
+          <t>lágimre</t>
         </is>
       </c>
       <c r="B1572" s="2" t="inlineStr">
@@ -19227,7 +19227,7 @@
     <row r="1574" ht="15" customHeight="1" s="3">
       <c r="A1574" s="2" t="inlineStr">
         <is>
-          <t>neuicto</t>
+          <t>neuicre</t>
         </is>
       </c>
       <c r="B1574" s="2" t="inlineStr">
@@ -19239,7 +19239,7 @@
     <row r="1575" ht="15" customHeight="1" s="3">
       <c r="A1575" s="2" t="inlineStr">
         <is>
-          <t>lavncio</t>
+          <t>lavncer</t>
         </is>
       </c>
       <c r="B1575" s="2" t="inlineStr">
@@ -19251,7 +19251,7 @@
     <row r="1576" ht="15" customHeight="1" s="3">
       <c r="A1576" s="2" t="inlineStr">
         <is>
-          <t>lídpre</t>
+          <t>lídper</t>
         </is>
       </c>
       <c r="B1576" s="2" t="inlineStr">
@@ -19263,7 +19263,7 @@
     <row r="1577" ht="15" customHeight="1" s="3">
       <c r="A1577" s="2" t="inlineStr">
         <is>
-          <t>lamater</t>
+          <t>lamatto</t>
         </is>
       </c>
       <c r="B1577" s="2" t="inlineStr">
@@ -19323,7 +19323,7 @@
     <row r="1582" ht="15" customHeight="1" s="3">
       <c r="A1582" s="2" t="inlineStr">
         <is>
-          <t>Negrto</t>
+          <t>Negrer</t>
         </is>
       </c>
       <c r="B1582" s="2" t="inlineStr">
@@ -19395,7 +19395,7 @@
     <row r="1588" ht="15" customHeight="1" s="3">
       <c r="A1588" s="2" t="inlineStr">
         <is>
-          <t>palver</t>
+          <t>palvto</t>
         </is>
       </c>
       <c r="B1588" s="2" t="inlineStr">
@@ -19407,7 +19407,7 @@
     <row r="1589" ht="15" customHeight="1" s="3">
       <c r="A1589" s="2" t="inlineStr">
         <is>
-          <t>palvto</t>
+          <t>palver</t>
         </is>
       </c>
       <c r="B1589" s="2" t="inlineStr">
@@ -19443,7 +19443,7 @@
     <row r="1592" ht="15" customHeight="1" s="3">
       <c r="A1592" s="2" t="inlineStr">
         <is>
-          <t>fueocer</t>
+          <t>fueocre</t>
         </is>
       </c>
       <c r="B1592" s="2" t="inlineStr">
@@ -19491,7 +19491,7 @@
     <row r="1596" ht="15" customHeight="1" s="3">
       <c r="A1596" s="2" t="inlineStr">
         <is>
-          <t>adhiver</t>
+          <t>adhivio</t>
         </is>
       </c>
       <c r="B1596" s="2" t="inlineStr">
@@ -19515,7 +19515,7 @@
     <row r="1598" ht="15" customHeight="1" s="3">
       <c r="A1598" s="2" t="inlineStr">
         <is>
-          <t>bolccer</t>
+          <t>bolccre</t>
         </is>
       </c>
       <c r="B1598" s="2" t="inlineStr">
@@ -19575,7 +19575,7 @@
     <row r="1603" ht="15" customHeight="1" s="3">
       <c r="A1603" s="2" t="inlineStr">
         <is>
-          <t>casio</t>
+          <t>caser</t>
         </is>
       </c>
       <c r="B1603" s="2" t="inlineStr">
@@ -19587,7 +19587,7 @@
     <row r="1604" ht="15" customHeight="1" s="3">
       <c r="A1604" s="2" t="inlineStr">
         <is>
-          <t>lirirre</t>
+          <t>liririo</t>
         </is>
       </c>
       <c r="B1604" s="2" t="inlineStr">
@@ -19599,7 +19599,7 @@
     <row r="1605" ht="15" customHeight="1" s="3">
       <c r="A1605" s="2" t="inlineStr">
         <is>
-          <t>ocerre</t>
+          <t>ocerto</t>
         </is>
       </c>
       <c r="B1605" s="2" t="inlineStr">
@@ -19635,7 +19635,7 @@
     <row r="1608" ht="15" customHeight="1" s="3">
       <c r="A1608" s="2" t="inlineStr">
         <is>
-          <t>viratio</t>
+          <t>virater</t>
         </is>
       </c>
       <c r="B1608" s="2" t="inlineStr">
@@ -19671,7 +19671,7 @@
     <row r="1611" ht="15" customHeight="1" s="3">
       <c r="A1611" s="2" t="inlineStr">
         <is>
-          <t>Másnter</t>
+          <t>Másntio</t>
         </is>
       </c>
       <c r="B1611" s="2" t="inlineStr">
@@ -19695,7 +19695,7 @@
     <row r="1613" ht="15" customHeight="1" s="3">
       <c r="A1613" s="2" t="inlineStr">
         <is>
-          <t>masosio</t>
+          <t>masosto</t>
         </is>
       </c>
       <c r="B1613" s="2" t="inlineStr">
@@ -19707,7 +19707,7 @@
     <row r="1614" ht="15" customHeight="1" s="3">
       <c r="A1614" s="2" t="inlineStr">
         <is>
-          <t>macerer</t>
+          <t>macerre</t>
         </is>
       </c>
       <c r="B1614" s="2" t="inlineStr">
@@ -19743,7 +19743,7 @@
     <row r="1617" ht="15" customHeight="1" s="3">
       <c r="A1617" s="2" t="inlineStr">
         <is>
-          <t>taboler</t>
+          <t>tabolto</t>
         </is>
       </c>
       <c r="B1617" s="2" t="inlineStr">
@@ -19755,7 +19755,7 @@
     <row r="1618" ht="15" customHeight="1" s="3">
       <c r="A1618" s="2" t="inlineStr">
         <is>
-          <t>pereser</t>
+          <t>peresre</t>
         </is>
       </c>
       <c r="B1618" s="2" t="inlineStr">
@@ -19863,7 +19863,7 @@
     <row r="1627" ht="15" customHeight="1" s="3">
       <c r="A1627" s="2" t="inlineStr">
         <is>
-          <t>pesoier</t>
+          <t>pesoiio</t>
         </is>
       </c>
       <c r="B1627" s="2" t="inlineStr">
@@ -19875,7 +19875,7 @@
     <row r="1628" ht="15" customHeight="1" s="3">
       <c r="A1628" s="2" t="inlineStr">
         <is>
-          <t>fordio</t>
+          <t>fordto</t>
         </is>
       </c>
       <c r="B1628" s="2" t="inlineStr">
@@ -19935,7 +19935,7 @@
     <row r="1633" ht="15" customHeight="1" s="3">
       <c r="A1633" s="2" t="inlineStr">
         <is>
-          <t>conccer</t>
+          <t>conccto</t>
         </is>
       </c>
       <c r="B1633" s="2" t="inlineStr">
@@ -20043,7 +20043,7 @@
     <row r="1642" ht="15" customHeight="1" s="3">
       <c r="A1642" s="2" t="inlineStr">
         <is>
-          <t>marllre</t>
+          <t>marllto</t>
         </is>
       </c>
       <c r="B1642" s="2" t="inlineStr">
@@ -20127,7 +20127,7 @@
     <row r="1649" ht="15" customHeight="1" s="3">
       <c r="A1649" s="2" t="inlineStr">
         <is>
-          <t>en zzre</t>
+          <t>en zzio</t>
         </is>
       </c>
       <c r="B1649" s="2" t="inlineStr">
@@ -20139,7 +20139,7 @@
     <row r="1650" ht="15" customHeight="1" s="3">
       <c r="A1650" s="2" t="inlineStr">
         <is>
-          <t>señorio</t>
+          <t>señorer</t>
         </is>
       </c>
       <c r="B1650" s="2" t="inlineStr">
@@ -20151,7 +20151,7 @@
     <row r="1651" ht="15" customHeight="1" s="3">
       <c r="A1651" s="2" t="inlineStr">
         <is>
-          <t>megenio</t>
+          <t>megener</t>
         </is>
       </c>
       <c r="B1651" s="2" t="inlineStr">
@@ -20163,7 +20163,7 @@
     <row r="1652" ht="15" customHeight="1" s="3">
       <c r="A1652" s="2" t="inlineStr">
         <is>
-          <t>melngto</t>
+          <t>melnger</t>
         </is>
       </c>
       <c r="B1652" s="2" t="inlineStr">
@@ -20211,7 +20211,7 @@
     <row r="1656" ht="15" customHeight="1" s="3">
       <c r="A1656" s="2" t="inlineStr">
         <is>
-          <t>amangre</t>
+          <t>amanger</t>
         </is>
       </c>
       <c r="B1656" s="2" t="inlineStr">
@@ -20247,7 +20247,7 @@
     <row r="1659" ht="15" customHeight="1" s="3">
       <c r="A1659" s="2" t="inlineStr">
         <is>
-          <t>mingito</t>
+          <t>mingier</t>
         </is>
       </c>
       <c r="B1659" s="2" t="inlineStr">
@@ -20307,7 +20307,7 @@
     <row r="1664" ht="15" customHeight="1" s="3">
       <c r="A1664" s="2" t="inlineStr">
         <is>
-          <t>mer</t>
+          <t>mio</t>
         </is>
       </c>
       <c r="B1664" s="2" t="inlineStr">
@@ -20331,7 +20331,7 @@
     <row r="1666" ht="15" customHeight="1" s="3">
       <c r="A1666" s="2" t="inlineStr">
         <is>
-          <t>horilio</t>
+          <t>horilre</t>
         </is>
       </c>
       <c r="B1666" s="2" t="inlineStr">
@@ -20343,7 +20343,7 @@
     <row r="1667" ht="15" customHeight="1" s="3">
       <c r="A1667" s="2" t="inlineStr">
         <is>
-          <t>Menerio</t>
+          <t>Menerer</t>
         </is>
       </c>
       <c r="B1667" s="2" t="inlineStr">
@@ -20415,7 +20415,7 @@
     <row r="1673" ht="15" customHeight="1" s="3">
       <c r="A1673" s="2" t="inlineStr">
         <is>
-          <t>mettrre</t>
+          <t>mettrto</t>
         </is>
       </c>
       <c r="B1673" s="2" t="inlineStr">
@@ -20451,7 +20451,7 @@
     <row r="1676" ht="15" customHeight="1" s="3">
       <c r="A1676" s="2" t="inlineStr">
         <is>
-          <t>aseinre</t>
+          <t>aseiner</t>
         </is>
       </c>
       <c r="B1676" s="2" t="inlineStr">
@@ -20595,7 +20595,7 @@
     <row r="1688" ht="15" customHeight="1" s="3">
       <c r="A1688" s="2" t="inlineStr">
         <is>
-          <t>avaario</t>
+          <t>avaarto</t>
         </is>
       </c>
       <c r="B1688" s="2" t="inlineStr">
@@ -20607,7 +20607,7 @@
     <row r="1689" ht="15" customHeight="1" s="3">
       <c r="A1689" s="2" t="inlineStr">
         <is>
-          <t>mueliio</t>
+          <t>muelito</t>
         </is>
       </c>
       <c r="B1689" s="2" t="inlineStr">
@@ -20643,7 +20643,7 @@
     <row r="1692" ht="15" customHeight="1" s="3">
       <c r="A1692" s="2" t="inlineStr">
         <is>
-          <t>maddrio</t>
+          <t>maddrre</t>
         </is>
       </c>
       <c r="B1692" s="2" t="inlineStr">
@@ -20739,7 +20739,7 @@
     <row r="1700" ht="15" customHeight="1" s="3">
       <c r="A1700" s="2" t="inlineStr">
         <is>
-          <t>morrsre</t>
+          <t>morrsio</t>
         </is>
       </c>
       <c r="B1700" s="2" t="inlineStr">
@@ -20775,7 +20775,7 @@
     <row r="1703" ht="15" customHeight="1" s="3">
       <c r="A1703" s="2" t="inlineStr">
         <is>
-          <t>motivto</t>
+          <t>motivre</t>
         </is>
       </c>
       <c r="B1703" s="2" t="inlineStr">
@@ -20823,7 +20823,7 @@
     <row r="1707" ht="15" customHeight="1" s="3">
       <c r="A1707" s="2" t="inlineStr">
         <is>
-          <t>moffio</t>
+          <t>moffer</t>
         </is>
       </c>
       <c r="B1707" s="2" t="inlineStr">
@@ -20847,7 +20847,7 @@
     <row r="1709" ht="15" customHeight="1" s="3">
       <c r="A1709" s="2" t="inlineStr">
         <is>
-          <t>movssre</t>
+          <t>movssio</t>
         </is>
       </c>
       <c r="B1709" s="2" t="inlineStr">
@@ -20883,7 +20883,7 @@
     <row r="1712" ht="15" customHeight="1" s="3">
       <c r="A1712" s="2" t="inlineStr">
         <is>
-          <t>munniio</t>
+          <t>munnire</t>
         </is>
       </c>
       <c r="B1712" s="2" t="inlineStr">
@@ -20895,7 +20895,7 @@
     <row r="1713" ht="15" customHeight="1" s="3">
       <c r="A1713" s="2" t="inlineStr">
         <is>
-          <t>madurre</t>
+          <t>madurto</t>
         </is>
       </c>
       <c r="B1713" s="2" t="inlineStr">
@@ -20967,7 +20967,7 @@
     <row r="1719" ht="15" customHeight="1" s="3">
       <c r="A1719" s="2" t="inlineStr">
         <is>
-          <t>tonchto</t>
+          <t>toncher</t>
         </is>
       </c>
       <c r="B1719" s="2" t="inlineStr">
@@ -21015,7 +21015,7 @@
     <row r="1723" ht="15" customHeight="1" s="3">
       <c r="A1723" s="2" t="inlineStr">
         <is>
-          <t>necntre</t>
+          <t>necnter</t>
         </is>
       </c>
       <c r="B1723" s="2" t="inlineStr">
@@ -21075,7 +21075,7 @@
     <row r="1728" ht="15" customHeight="1" s="3">
       <c r="A1728" s="2" t="inlineStr">
         <is>
-          <t>máshito</t>
+          <t>máshire</t>
         </is>
       </c>
       <c r="B1728" s="2" t="inlineStr">
@@ -21111,7 +21111,7 @@
     <row r="1731" ht="15" customHeight="1" s="3">
       <c r="A1731" s="2" t="inlineStr">
         <is>
-          <t>númerre</t>
+          <t>númerer</t>
         </is>
       </c>
       <c r="B1731" s="2" t="inlineStr">
@@ -21123,7 +21123,7 @@
     <row r="1732" ht="15" customHeight="1" s="3">
       <c r="A1732" s="2" t="inlineStr">
         <is>
-          <t>chinzto</t>
+          <t>chinzer</t>
         </is>
       </c>
       <c r="B1732" s="2" t="inlineStr">
@@ -21159,7 +21159,7 @@
     <row r="1735" ht="15" customHeight="1" s="3">
       <c r="A1735" s="2" t="inlineStr">
         <is>
-          <t>negier</t>
+          <t>negiio</t>
         </is>
       </c>
       <c r="B1735" s="2" t="inlineStr">
@@ -21171,7 +21171,7 @@
     <row r="1736" ht="15" customHeight="1" s="3">
       <c r="A1736" s="2" t="inlineStr">
         <is>
-          <t>cololto</t>
+          <t>cololre</t>
         </is>
       </c>
       <c r="B1736" s="2" t="inlineStr">
@@ -21207,7 +21207,7 @@
     <row r="1739" ht="15" customHeight="1" s="3">
       <c r="A1739" s="2" t="inlineStr">
         <is>
-          <t>atttre</t>
+          <t>attter</t>
         </is>
       </c>
       <c r="B1739" s="2" t="inlineStr">
@@ -21231,7 +21231,7 @@
     <row r="1741" ht="15" customHeight="1" s="3">
       <c r="A1741" s="2" t="inlineStr">
         <is>
-          <t>ahocre</t>
+          <t>ahocio</t>
         </is>
       </c>
       <c r="B1741" s="2" t="inlineStr">
@@ -21291,7 +21291,7 @@
     <row r="1746" ht="15" customHeight="1" s="3">
       <c r="A1746" s="2" t="inlineStr">
         <is>
-          <t>borllre</t>
+          <t>borller</t>
         </is>
       </c>
       <c r="B1746" s="2" t="inlineStr">
@@ -21303,7 +21303,7 @@
     <row r="1747" ht="15" customHeight="1" s="3">
       <c r="A1747" s="2" t="inlineStr">
         <is>
-          <t>oscurer</t>
+          <t>oscurio</t>
         </is>
       </c>
       <c r="B1747" s="2" t="inlineStr">
@@ -21315,7 +21315,7 @@
     <row r="1748" ht="15" customHeight="1" s="3">
       <c r="A1748" s="2" t="inlineStr">
         <is>
-          <t>obsivio</t>
+          <t>obsivre</t>
         </is>
       </c>
       <c r="B1748" s="2" t="inlineStr">
@@ -21363,7 +21363,7 @@
     <row r="1752" ht="15" customHeight="1" s="3">
       <c r="A1752" s="2" t="inlineStr">
         <is>
-          <t>cauusto</t>
+          <t>cauusio</t>
         </is>
       </c>
       <c r="B1752" s="2" t="inlineStr">
@@ -21423,7 +21423,7 @@
     <row r="1757" ht="15" customHeight="1" s="3">
       <c r="A1757" s="2" t="inlineStr">
         <is>
-          <t>ofialer</t>
+          <t>ofialto</t>
         </is>
       </c>
       <c r="B1757" s="2" t="inlineStr">
@@ -21471,7 +21471,7 @@
     <row r="1761" ht="15" customHeight="1" s="3">
       <c r="A1761" s="2" t="inlineStr">
         <is>
-          <t>odto</t>
+          <t>oder</t>
         </is>
       </c>
       <c r="B1761" s="2" t="inlineStr">
@@ -21495,7 +21495,7 @@
     <row r="1763" ht="15" customHeight="1" s="3">
       <c r="A1763" s="2" t="inlineStr">
         <is>
-          <t>oporser</t>
+          <t>oporsto</t>
         </is>
       </c>
       <c r="B1763" s="2" t="inlineStr">
@@ -21555,7 +21555,7 @@
     <row r="1768" ht="15" customHeight="1" s="3">
       <c r="A1768" s="2" t="inlineStr">
         <is>
-          <t>alminre</t>
+          <t>alminer</t>
         </is>
       </c>
       <c r="B1768" s="2" t="inlineStr">
@@ -21639,7 +21639,7 @@
     <row r="1775" ht="15" customHeight="1" s="3">
       <c r="A1775" s="2" t="inlineStr">
         <is>
-          <t>Nuttrio</t>
+          <t>Nuttrre</t>
         </is>
       </c>
       <c r="B1775" s="2" t="inlineStr">
@@ -21675,7 +21675,7 @@
     <row r="1778" ht="15" customHeight="1" s="3">
       <c r="A1778" s="2" t="inlineStr">
         <is>
-          <t>nuedito</t>
+          <t>nuedire</t>
         </is>
       </c>
       <c r="B1778" s="2" t="inlineStr">
@@ -21687,7 +21687,7 @@
     <row r="1779" ht="15" customHeight="1" s="3">
       <c r="A1779" s="2" t="inlineStr">
         <is>
-          <t>indosto</t>
+          <t>indosre</t>
         </is>
       </c>
       <c r="B1779" s="2" t="inlineStr">
@@ -21711,7 +21711,7 @@
     <row r="1781" ht="15" customHeight="1" s="3">
       <c r="A1781" s="2" t="inlineStr">
         <is>
-          <t>foremre</t>
+          <t>foremio</t>
         </is>
       </c>
       <c r="B1781" s="2" t="inlineStr">
@@ -21747,7 +21747,7 @@
     <row r="1784" ht="15" customHeight="1" s="3">
       <c r="A1784" s="2" t="inlineStr">
         <is>
-          <t>ovastre</t>
+          <t>ovastio</t>
         </is>
       </c>
       <c r="B1784" s="2" t="inlineStr">
@@ -21783,7 +21783,7 @@
     <row r="1787" ht="15" customHeight="1" s="3">
       <c r="A1787" s="2" t="inlineStr">
         <is>
-          <t>pagonre</t>
+          <t>pagonto</t>
         </is>
       </c>
       <c r="B1787" s="2" t="inlineStr">
@@ -21819,7 +21819,7 @@
     <row r="1790" ht="15" customHeight="1" s="3">
       <c r="A1790" s="2" t="inlineStr">
         <is>
-          <t>ler</t>
+          <t>lre</t>
         </is>
       </c>
       <c r="B1790" s="2" t="inlineStr">
@@ -21891,7 +21891,7 @@
     <row r="1796" ht="15" customHeight="1" s="3">
       <c r="A1796" s="2" t="inlineStr">
         <is>
-          <t>cesiner</t>
+          <t>cesinre</t>
         </is>
       </c>
       <c r="B1796" s="2" t="inlineStr">
@@ -21903,7 +21903,7 @@
     <row r="1797" ht="15" customHeight="1" s="3">
       <c r="A1797" s="2" t="inlineStr">
         <is>
-          <t>pánicto</t>
+          <t>pánicer</t>
         </is>
       </c>
       <c r="B1797" s="2" t="inlineStr">
@@ -21951,7 +21951,7 @@
     <row r="1801" ht="15" customHeight="1" s="3">
       <c r="A1801" s="2" t="inlineStr">
         <is>
-          <t>papstre</t>
+          <t>papstio</t>
         </is>
       </c>
       <c r="B1801" s="2" t="inlineStr">
@@ -21963,7 +21963,7 @@
     <row r="1802" ht="15" customHeight="1" s="3">
       <c r="A1802" s="2" t="inlineStr">
         <is>
-          <t>chaatio</t>
+          <t>chaater</t>
         </is>
       </c>
       <c r="B1802" s="2" t="inlineStr">
@@ -21999,7 +21999,7 @@
     <row r="1805" ht="15" customHeight="1" s="3">
       <c r="A1805" s="2" t="inlineStr">
         <is>
-          <t>inialio</t>
+          <t>inialto</t>
         </is>
       </c>
       <c r="B1805" s="2" t="inlineStr">
@@ -22059,7 +22059,7 @@
     <row r="1810" ht="15" customHeight="1" s="3">
       <c r="A1810" s="2" t="inlineStr">
         <is>
-          <t>perumio</t>
+          <t>perumto</t>
         </is>
       </c>
       <c r="B1810" s="2" t="inlineStr">
@@ -22107,7 +22107,7 @@
     <row r="1814" ht="15" customHeight="1" s="3">
       <c r="A1814" s="2" t="inlineStr">
         <is>
-          <t>pardier</t>
+          <t>pardire</t>
         </is>
       </c>
       <c r="B1814" s="2" t="inlineStr">
@@ -22191,7 +22191,7 @@
     <row r="1821" ht="15" customHeight="1" s="3">
       <c r="A1821" s="2" t="inlineStr">
         <is>
-          <t>pasntre</t>
+          <t>pasntto</t>
         </is>
       </c>
       <c r="B1821" s="2" t="inlineStr">
@@ -22335,7 +22335,7 @@
     <row r="1833" ht="15" customHeight="1" s="3">
       <c r="A1833" s="2" t="inlineStr">
         <is>
-          <t>peiiner</t>
+          <t>peiinre</t>
         </is>
       </c>
       <c r="B1833" s="2" t="inlineStr">
@@ -22467,7 +22467,7 @@
     <row r="1844" ht="15" customHeight="1" s="3">
       <c r="A1844" s="2" t="inlineStr">
         <is>
-          <t>atranre</t>
+          <t>atranio</t>
         </is>
       </c>
       <c r="B1844" s="2" t="inlineStr">
@@ -22491,7 +22491,7 @@
     <row r="1846" ht="15" customHeight="1" s="3">
       <c r="A1846" s="2" t="inlineStr">
         <is>
-          <t>pericio</t>
+          <t>pericto</t>
         </is>
       </c>
       <c r="B1846" s="2" t="inlineStr">
@@ -22575,7 +22575,7 @@
     <row r="1853" ht="15" customHeight="1" s="3">
       <c r="A1853" s="2" t="inlineStr">
         <is>
-          <t>pertuio</t>
+          <t>pertuto</t>
         </is>
       </c>
       <c r="B1853" s="2" t="inlineStr">
@@ -22623,7 +22623,7 @@
     <row r="1857" ht="15" customHeight="1" s="3">
       <c r="A1857" s="2" t="inlineStr">
         <is>
-          <t>perntre</t>
+          <t>perntio</t>
         </is>
       </c>
       <c r="B1857" s="2" t="inlineStr">
@@ -22779,7 +22779,7 @@
     <row r="1870" ht="15" customHeight="1" s="3">
       <c r="A1870" s="2" t="inlineStr">
         <is>
-          <t>filofre</t>
+          <t>filofto</t>
         </is>
       </c>
       <c r="B1870" s="2" t="inlineStr">
@@ -22791,7 +22791,7 @@
     <row r="1871" ht="15" customHeight="1" s="3">
       <c r="A1871" s="2" t="inlineStr">
         <is>
-          <t>fotfiio</t>
+          <t>fotfier</t>
         </is>
       </c>
       <c r="B1871" s="2" t="inlineStr">
@@ -22851,7 +22851,7 @@
     <row r="1876" ht="15" customHeight="1" s="3">
       <c r="A1876" s="2" t="inlineStr">
         <is>
-          <t>Delalto</t>
+          <t>Delaler</t>
         </is>
       </c>
       <c r="B1876" s="2" t="inlineStr">
@@ -22863,7 +22863,7 @@
     <row r="1877" ht="15" customHeight="1" s="3">
       <c r="A1877" s="2" t="inlineStr">
         <is>
-          <t>palonre</t>
+          <t>palonto</t>
         </is>
       </c>
       <c r="B1877" s="2" t="inlineStr">
@@ -22875,7 +22875,7 @@
     <row r="1878" ht="15" customHeight="1" s="3">
       <c r="A1878" s="2" t="inlineStr">
         <is>
-          <t>chizzer</t>
+          <t>chizzio</t>
         </is>
       </c>
       <c r="B1878" s="2" t="inlineStr">
@@ -22887,7 +22887,7 @@
     <row r="1879" ht="15" customHeight="1" s="3">
       <c r="A1879" s="2" t="inlineStr">
         <is>
-          <t>piltrio</t>
+          <t>piltrre</t>
         </is>
       </c>
       <c r="B1879" s="2" t="inlineStr">
@@ -22911,7 +22911,7 @@
     <row r="1881" ht="15" customHeight="1" s="3">
       <c r="A1881" s="2" t="inlineStr">
         <is>
-          <t>pilotre</t>
+          <t>pilotio</t>
         </is>
       </c>
       <c r="B1881" s="2" t="inlineStr">
@@ -22935,7 +22935,7 @@
     <row r="1883" ht="15" customHeight="1" s="3">
       <c r="A1883" s="2" t="inlineStr">
         <is>
-          <t>pinlier</t>
+          <t>pinlire</t>
         </is>
       </c>
       <c r="B1883" s="2" t="inlineStr">
@@ -22971,7 +22971,7 @@
     <row r="1886" ht="15" customHeight="1" s="3">
       <c r="A1886" s="2" t="inlineStr">
         <is>
-          <t>picurto</t>
+          <t>picurio</t>
         </is>
       </c>
       <c r="B1886" s="2" t="inlineStr">
@@ -23007,7 +23007,7 @@
     <row r="1889" ht="15" customHeight="1" s="3">
       <c r="A1889" s="2" t="inlineStr">
         <is>
-          <t>lámerer</t>
+          <t>lámerto</t>
         </is>
       </c>
       <c r="B1889" s="2" t="inlineStr">
@@ -23055,7 +23055,7 @@
     <row r="1893" ht="15" customHeight="1" s="3">
       <c r="A1893" s="2" t="inlineStr">
         <is>
-          <t>broirio</t>
+          <t>broirre</t>
         </is>
       </c>
       <c r="B1893" s="2" t="inlineStr">
@@ -23091,7 +23091,7 @@
     <row r="1896" ht="15" customHeight="1" s="3">
       <c r="A1896" s="2" t="inlineStr">
         <is>
-          <t>cepllio</t>
+          <t>cepllre</t>
         </is>
       </c>
       <c r="B1896" s="2" t="inlineStr">
@@ -23115,7 +23115,7 @@
     <row r="1898" ht="15" customHeight="1" s="3">
       <c r="A1898" s="2" t="inlineStr">
         <is>
-          <t>plaerre</t>
+          <t>plaerio</t>
         </is>
       </c>
       <c r="B1898" s="2" t="inlineStr">
@@ -23127,7 +23127,7 @@
     <row r="1899" ht="15" customHeight="1" s="3">
       <c r="A1899" s="2" t="inlineStr">
         <is>
-          <t>yeltto</t>
+          <t>yeltre</t>
         </is>
       </c>
       <c r="B1899" s="2" t="inlineStr">
@@ -23175,7 +23175,7 @@
     <row r="1903" ht="15" customHeight="1" s="3">
       <c r="A1903" s="2" t="inlineStr">
         <is>
-          <t>plighio</t>
+          <t>plighto</t>
         </is>
       </c>
       <c r="B1903" s="2" t="inlineStr">
@@ -23187,7 +23187,7 @@
     <row r="1904" ht="15" customHeight="1" s="3">
       <c r="A1904" s="2" t="inlineStr">
         <is>
-          <t>ploicre</t>
+          <t>ploicto</t>
         </is>
       </c>
       <c r="B1904" s="2" t="inlineStr">
@@ -23199,7 +23199,7 @@
     <row r="1905" ht="15" customHeight="1" s="3">
       <c r="A1905" s="2" t="inlineStr">
         <is>
-          <t>bucffto</t>
+          <t>bucffer</t>
         </is>
       </c>
       <c r="B1905" s="2" t="inlineStr">
@@ -23295,7 +23295,7 @@
     <row r="1913" ht="15" customHeight="1" s="3">
       <c r="A1913" s="2" t="inlineStr">
         <is>
-          <t>pesolio</t>
+          <t>pesolre</t>
         </is>
       </c>
       <c r="B1913" s="2" t="inlineStr">
@@ -23331,7 +23331,7 @@
     <row r="1916" ht="15" customHeight="1" s="3">
       <c r="A1916" s="2" t="inlineStr">
         <is>
-          <t>pollito</t>
+          <t>polliio</t>
         </is>
       </c>
       <c r="B1916" s="2" t="inlineStr">
@@ -23355,7 +23355,7 @@
     <row r="1918" ht="15" customHeight="1" s="3">
       <c r="A1918" s="2" t="inlineStr">
         <is>
-          <t>policto</t>
+          <t>policer</t>
         </is>
       </c>
       <c r="B1918" s="2" t="inlineStr">
@@ -23379,7 +23379,7 @@
     <row r="1920" ht="15" customHeight="1" s="3">
       <c r="A1920" s="2" t="inlineStr">
         <is>
-          <t>bommpto</t>
+          <t>bommpio</t>
         </is>
       </c>
       <c r="B1920" s="2" t="inlineStr">
@@ -23415,7 +23415,7 @@
     <row r="1923" ht="15" customHeight="1" s="3">
       <c r="A1923" s="2" t="inlineStr">
         <is>
-          <t>porinre</t>
+          <t>porinio</t>
         </is>
       </c>
       <c r="B1923" s="2" t="inlineStr">
@@ -23487,7 +23487,7 @@
     <row r="1929" ht="15" customHeight="1" s="3">
       <c r="A1929" s="2" t="inlineStr">
         <is>
-          <t>potndre</t>
+          <t>potnder</t>
         </is>
       </c>
       <c r="B1929" s="2" t="inlineStr">
@@ -23511,7 +23511,7 @@
     <row r="1931" ht="15" customHeight="1" s="3">
       <c r="A1931" s="2" t="inlineStr">
         <is>
-          <t>percier</t>
+          <t>percire</t>
         </is>
       </c>
       <c r="B1931" s="2" t="inlineStr">
@@ -23583,7 +23583,7 @@
     <row r="1937" ht="15" customHeight="1" s="3">
       <c r="A1937" s="2" t="inlineStr">
         <is>
-          <t>praicre</t>
+          <t>praicer</t>
         </is>
       </c>
       <c r="B1937" s="2" t="inlineStr">
@@ -23655,7 +23655,7 @@
     <row r="1943" ht="15" customHeight="1" s="3">
       <c r="A1943" s="2" t="inlineStr">
         <is>
-          <t>prentto</t>
+          <t>prentio</t>
         </is>
       </c>
       <c r="B1943" s="2" t="inlineStr">
@@ -23907,7 +23907,7 @@
     <row r="1964" ht="15" customHeight="1" s="3">
       <c r="A1964" s="2" t="inlineStr">
         <is>
-          <t>prierre</t>
+          <t>prierto</t>
         </is>
       </c>
       <c r="B1964" s="2" t="inlineStr">
@@ -23943,7 +23943,7 @@
     <row r="1967" ht="15" customHeight="1" s="3">
       <c r="A1967" s="2" t="inlineStr">
         <is>
-          <t>priegto</t>
+          <t>prieger</t>
         </is>
       </c>
       <c r="B1967" s="2" t="inlineStr">
@@ -23991,7 +23991,7 @@
     <row r="1971" ht="15" customHeight="1" s="3">
       <c r="A1971" s="2" t="inlineStr">
         <is>
-          <t>proosre</t>
+          <t>prooser</t>
         </is>
       </c>
       <c r="B1971" s="2" t="inlineStr">
@@ -24003,7 +24003,7 @@
     <row r="1972" ht="15" customHeight="1" s="3">
       <c r="A1972" s="2" t="inlineStr">
         <is>
-          <t>proanto</t>
+          <t>proanio</t>
         </is>
       </c>
       <c r="B1972" s="2" t="inlineStr">
@@ -24063,7 +24063,7 @@
     <row r="1977" ht="15" customHeight="1" s="3">
       <c r="A1977" s="2" t="inlineStr">
         <is>
-          <t>prossto</t>
+          <t>prossio</t>
         </is>
       </c>
       <c r="B1977" s="2" t="inlineStr">
@@ -24123,7 +24123,7 @@
     <row r="1982" ht="15" customHeight="1" s="3">
       <c r="A1982" s="2" t="inlineStr">
         <is>
-          <t>pasatio</t>
+          <t>pasatre</t>
         </is>
       </c>
       <c r="B1982" s="2" t="inlineStr">
@@ -24159,7 +24159,7 @@
     <row r="1985" ht="15" customHeight="1" s="3">
       <c r="A1985" s="2" t="inlineStr">
         <is>
-          <t>proonio</t>
+          <t>prooner</t>
         </is>
       </c>
       <c r="B1985" s="2" t="inlineStr">
@@ -24207,7 +24207,7 @@
     <row r="1989" ht="15" customHeight="1" s="3">
       <c r="A1989" s="2" t="inlineStr">
         <is>
-          <t>prontio</t>
+          <t>prontto</t>
         </is>
       </c>
       <c r="B1989" s="2" t="inlineStr">
@@ -24219,7 +24219,7 @@
     <row r="1990" ht="15" customHeight="1" s="3">
       <c r="A1990" s="2" t="inlineStr">
         <is>
-          <t>proiver</t>
+          <t>proivto</t>
         </is>
       </c>
       <c r="B1990" s="2" t="inlineStr">
@@ -24255,7 +24255,7 @@
     <row r="1993" ht="15" customHeight="1" s="3">
       <c r="A1993" s="2" t="inlineStr">
         <is>
-          <t>prontio</t>
+          <t>pronter</t>
         </is>
       </c>
       <c r="B1993" s="2" t="inlineStr">
@@ -24279,7 +24279,7 @@
     <row r="1995" ht="15" customHeight="1" s="3">
       <c r="A1995" s="2" t="inlineStr">
         <is>
-          <t>sur dio</t>
+          <t>sur dto</t>
         </is>
       </c>
       <c r="B1995" s="2" t="inlineStr">
@@ -24291,7 +24291,7 @@
     <row r="1996" ht="15" customHeight="1" s="3">
       <c r="A1996" s="2" t="inlineStr">
         <is>
-          <t>disoner</t>
+          <t>disonio</t>
         </is>
       </c>
       <c r="B1996" s="2" t="inlineStr">
@@ -24339,7 +24339,7 @@
     <row r="2000" ht="15" customHeight="1" s="3">
       <c r="A2000" s="2" t="inlineStr">
         <is>
-          <t>pocchto</t>
+          <t>pocchre</t>
         </is>
       </c>
       <c r="B2000" s="2" t="inlineStr">
@@ -24351,7 +24351,7 @@
     <row r="2001" ht="15" customHeight="1" s="3">
       <c r="A2001" s="2" t="inlineStr">
         <is>
-          <t>dibgner</t>
+          <t>dibgnio</t>
         </is>
       </c>
       <c r="B2001" s="2" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="2002" ht="15" customHeight="1" s="3">
       <c r="A2002" s="2" t="inlineStr">
         <is>
-          <t>pulonto</t>
+          <t>pulonre</t>
         </is>
       </c>
       <c r="B2002" s="2" t="inlineStr">
@@ -24375,7 +24375,7 @@
     <row r="2003" ht="15" customHeight="1" s="3">
       <c r="A2003" s="2" t="inlineStr">
         <is>
-          <t>prierer</t>
+          <t>prierre</t>
         </is>
       </c>
       <c r="B2003" s="2" t="inlineStr">
@@ -24387,7 +24387,7 @@
     <row r="2004" ht="15" customHeight="1" s="3">
       <c r="A2004" s="2" t="inlineStr">
         <is>
-          <t>pullsio</t>
+          <t>pullsre</t>
         </is>
       </c>
       <c r="B2004" s="2" t="inlineStr">
@@ -24411,7 +24411,7 @@
     <row r="2006" ht="15" customHeight="1" s="3">
       <c r="A2006" s="2" t="inlineStr">
         <is>
-          <t>puronio</t>
+          <t>puroner</t>
         </is>
       </c>
       <c r="B2006" s="2" t="inlineStr">
@@ -24543,7 +24543,7 @@
     <row r="2017" ht="15" customHeight="1" s="3">
       <c r="A2017" s="2" t="inlineStr">
         <is>
-          <t>avireto</t>
+          <t>avirere</t>
         </is>
       </c>
       <c r="B2017" s="2" t="inlineStr">
@@ -24699,7 +24699,7 @@
     <row r="2030" ht="15" customHeight="1" s="3">
       <c r="A2030" s="2" t="inlineStr">
         <is>
-          <t>razivto</t>
+          <t>raziver</t>
         </is>
       </c>
       <c r="B2030" s="2" t="inlineStr">
@@ -24747,7 +24747,7 @@
     <row r="2034" ht="15" customHeight="1" s="3">
       <c r="A2034" s="2" t="inlineStr">
         <is>
-          <t>reullio</t>
+          <t>reuller</t>
         </is>
       </c>
       <c r="B2034" s="2" t="inlineStr">
@@ -24771,7 +24771,7 @@
     <row r="2036" ht="15" customHeight="1" s="3">
       <c r="A2036" s="2" t="inlineStr">
         <is>
-          <t>levlter</t>
+          <t>levltre</t>
         </is>
       </c>
       <c r="B2036" s="2" t="inlineStr">
@@ -24795,7 +24795,7 @@
     <row r="2038" ht="15" customHeight="1" s="3">
       <c r="A2038" s="2" t="inlineStr">
         <is>
-          <t>rammpio</t>
+          <t>rammpto</t>
         </is>
       </c>
       <c r="B2038" s="2" t="inlineStr">
@@ -24891,7 +24891,7 @@
     <row r="2046" ht="15" customHeight="1" s="3">
       <c r="A2046" s="2" t="inlineStr">
         <is>
-          <t>infrter</t>
+          <t>infrtio</t>
         </is>
       </c>
       <c r="B2046" s="2" t="inlineStr">
@@ -24927,7 +24927,7 @@
     <row r="2049" ht="15" customHeight="1" s="3">
       <c r="A2049" s="2" t="inlineStr">
         <is>
-          <t>razzzre</t>
+          <t>razzzer</t>
         </is>
       </c>
       <c r="B2049" s="2" t="inlineStr">
@@ -25023,7 +25023,7 @@
     <row r="2057" ht="15" customHeight="1" s="3">
       <c r="A2057" s="2" t="inlineStr">
         <is>
-          <t>racntre</t>
+          <t>racnter</t>
         </is>
       </c>
       <c r="B2057" s="2" t="inlineStr">
@@ -25071,7 +25071,7 @@
     <row r="2061" ht="15" customHeight="1" s="3">
       <c r="A2061" s="2" t="inlineStr">
         <is>
-          <t>trainio</t>
+          <t>trainre</t>
         </is>
       </c>
       <c r="B2061" s="2" t="inlineStr">
@@ -25095,7 +25095,7 @@
     <row r="2063" ht="15" customHeight="1" s="3">
       <c r="A2063" s="2" t="inlineStr">
         <is>
-          <t>baronto</t>
+          <t>baronre</t>
         </is>
       </c>
       <c r="B2063" s="2" t="inlineStr">
@@ -25107,7 +25107,7 @@
     <row r="2064" ht="15" customHeight="1" s="3">
       <c r="A2064" s="2" t="inlineStr">
         <is>
-          <t>delzito</t>
+          <t>delzier</t>
         </is>
       </c>
       <c r="B2064" s="2" t="inlineStr">
@@ -25203,7 +25203,7 @@
     <row r="2072" ht="15" customHeight="1" s="3">
       <c r="A2072" s="2" t="inlineStr">
         <is>
-          <t>voltrio</t>
+          <t>voltrto</t>
         </is>
       </c>
       <c r="B2072" s="2" t="inlineStr">
@@ -25239,7 +25239,7 @@
     <row r="2075" ht="15" customHeight="1" s="3">
       <c r="A2075" s="2" t="inlineStr">
         <is>
-          <t>recogre</t>
+          <t>recogio</t>
         </is>
       </c>
       <c r="B2075" s="2" t="inlineStr">
@@ -25323,7 +25323,7 @@
     <row r="2082" ht="15" customHeight="1" s="3">
       <c r="A2082" s="2" t="inlineStr">
         <is>
-          <t>reiivto</t>
+          <t>reiivio</t>
         </is>
       </c>
       <c r="B2082" s="2" t="inlineStr">
@@ -25359,7 +25359,7 @@
     <row r="2085" ht="15" customHeight="1" s="3">
       <c r="A2085" s="2" t="inlineStr">
         <is>
-          <t>segicer</t>
+          <t>segicto</t>
         </is>
       </c>
       <c r="B2085" s="2" t="inlineStr">
@@ -25383,7 +25383,7 @@
     <row r="2087" ht="15" customHeight="1" s="3">
       <c r="A2087" s="2" t="inlineStr">
         <is>
-          <t>Reaciio</t>
+          <t>Reacito</t>
         </is>
       </c>
       <c r="B2087" s="2" t="inlineStr">
@@ -25515,7 +25515,7 @@
     <row r="2098" ht="15" customHeight="1" s="3">
       <c r="A2098" s="2" t="inlineStr">
         <is>
-          <t>reconer</t>
+          <t>reconre</t>
         </is>
       </c>
       <c r="B2098" s="2" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="2102" ht="15" customHeight="1" s="3">
       <c r="A2102" s="2" t="inlineStr">
         <is>
-          <t>rettrto</t>
+          <t>rettrre</t>
         </is>
       </c>
       <c r="B2102" s="2" t="inlineStr">
@@ -25575,7 +25575,7 @@
     <row r="2103" ht="15" customHeight="1" s="3">
       <c r="A2103" s="2" t="inlineStr">
         <is>
-          <t>parrsre</t>
+          <t>parrser</t>
         </is>
       </c>
       <c r="B2103" s="2" t="inlineStr">
@@ -25599,7 +25599,7 @@
     <row r="2105" ht="15" customHeight="1" s="3">
       <c r="A2105" s="2" t="inlineStr">
         <is>
-          <t>reiinre</t>
+          <t>reiinio</t>
         </is>
       </c>
       <c r="B2105" s="2" t="inlineStr">
@@ -25731,7 +25731,7 @@
     <row r="2116" ht="15" customHeight="1" s="3">
       <c r="A2116" s="2" t="inlineStr">
         <is>
-          <t>refsser</t>
+          <t>refssio</t>
         </is>
       </c>
       <c r="B2116" s="2" t="inlineStr">
@@ -25791,7 +25791,7 @@
     <row r="2121" ht="15" customHeight="1" s="3">
       <c r="A2121" s="2" t="inlineStr">
         <is>
-          <t>Frddio</t>
+          <t>Frdder</t>
         </is>
       </c>
       <c r="B2121" s="2" t="inlineStr">
@@ -25803,7 +25803,7 @@
     <row r="2122" ht="15" customHeight="1" s="3">
       <c r="A2122" s="2" t="inlineStr">
         <is>
-          <t>refarto</t>
+          <t>refario</t>
         </is>
       </c>
       <c r="B2122" s="2" t="inlineStr">
@@ -25851,7 +25851,7 @@
     <row r="2126" ht="15" customHeight="1" s="3">
       <c r="A2126" s="2" t="inlineStr">
         <is>
-          <t>estalre</t>
+          <t>estaler</t>
         </is>
       </c>
       <c r="B2126" s="2" t="inlineStr">
@@ -25887,7 +25887,7 @@
     <row r="2129" ht="15" customHeight="1" s="3">
       <c r="A2129" s="2" t="inlineStr">
         <is>
-          <t>norolre</t>
+          <t>norolio</t>
         </is>
       </c>
       <c r="B2129" s="2" t="inlineStr">
@@ -25899,7 +25899,7 @@
     <row r="2130" ht="15" customHeight="1" s="3">
       <c r="A2130" s="2" t="inlineStr">
         <is>
-          <t>lluovio</t>
+          <t>lluovre</t>
         </is>
       </c>
       <c r="B2130" s="2" t="inlineStr">
@@ -26007,7 +26007,7 @@
     <row r="2139" ht="15" customHeight="1" s="3">
       <c r="A2139" s="2" t="inlineStr">
         <is>
-          <t>aleuiio</t>
+          <t>aleuito</t>
         </is>
       </c>
       <c r="B2139" s="2" t="inlineStr">
@@ -26043,7 +26043,7 @@
     <row r="2142" ht="15" customHeight="1" s="3">
       <c r="A2142" s="2" t="inlineStr">
         <is>
-          <t>relonio</t>
+          <t>relonto</t>
         </is>
       </c>
       <c r="B2142" s="2" t="inlineStr">
@@ -26055,7 +26055,7 @@
     <row r="2143" ht="15" customHeight="1" s="3">
       <c r="A2143" s="2" t="inlineStr">
         <is>
-          <t>relio</t>
+          <t>reler</t>
         </is>
       </c>
       <c r="B2143" s="2" t="inlineStr">
@@ -26151,7 +26151,7 @@
     <row r="2151" ht="15" customHeight="1" s="3">
       <c r="A2151" s="2" t="inlineStr">
         <is>
-          <t>remedio</t>
+          <t>remeder</t>
         </is>
       </c>
       <c r="B2151" s="2" t="inlineStr">
@@ -26163,7 +26163,7 @@
     <row r="2152" ht="15" customHeight="1" s="3">
       <c r="A2152" s="2" t="inlineStr">
         <is>
-          <t>recrdto</t>
+          <t>recrder</t>
         </is>
       </c>
       <c r="B2152" s="2" t="inlineStr">
@@ -26175,7 +26175,7 @@
     <row r="2153" ht="15" customHeight="1" s="3">
       <c r="A2153" s="2" t="inlineStr">
         <is>
-          <t>agrziio</t>
+          <t>agrzier</t>
         </is>
       </c>
       <c r="B2153" s="2" t="inlineStr">
@@ -26235,7 +26235,7 @@
     <row r="2158" ht="15" customHeight="1" s="3">
       <c r="A2158" s="2" t="inlineStr">
         <is>
-          <t>ganitio</t>
+          <t>ganiter</t>
         </is>
       </c>
       <c r="B2158" s="2" t="inlineStr">
@@ -26247,7 +26247,7 @@
     <row r="2159" ht="15" customHeight="1" s="3">
       <c r="A2159" s="2" t="inlineStr">
         <is>
-          <t>remater</t>
+          <t>rematre</t>
         </is>
       </c>
       <c r="B2159" s="2" t="inlineStr">
@@ -26343,7 +26343,7 @@
     <row r="2167" ht="15" customHeight="1" s="3">
       <c r="A2167" s="2" t="inlineStr">
         <is>
-          <t>Renoire</t>
+          <t>Renoito</t>
         </is>
       </c>
       <c r="B2167" s="2" t="inlineStr">
@@ -26451,7 +26451,7 @@
     <row r="2176" ht="15" customHeight="1" s="3">
       <c r="A2176" s="2" t="inlineStr">
         <is>
-          <t>envtrto</t>
+          <t>envtrre</t>
         </is>
       </c>
       <c r="B2176" s="2" t="inlineStr">
@@ -26475,7 +26475,7 @@
     <row r="2178" ht="15" customHeight="1" s="3">
       <c r="A2178" s="2" t="inlineStr">
         <is>
-          <t>reponer</t>
+          <t>reponto</t>
         </is>
       </c>
       <c r="B2178" s="2" t="inlineStr">
@@ -26535,7 +26535,7 @@
     <row r="2183" ht="15" customHeight="1" s="3">
       <c r="A2183" s="2" t="inlineStr">
         <is>
-          <t>reponer</t>
+          <t>reponre</t>
         </is>
       </c>
       <c r="B2183" s="2" t="inlineStr">
@@ -26583,7 +26583,7 @@
     <row r="2187" ht="15" customHeight="1" s="3">
       <c r="A2187" s="2" t="inlineStr">
         <is>
-          <t>dobegto</t>
+          <t>dobegre</t>
         </is>
       </c>
       <c r="B2187" s="2" t="inlineStr">
@@ -26667,7 +26667,7 @@
     <row r="2194" ht="15" customHeight="1" s="3">
       <c r="A2194" s="2" t="inlineStr">
         <is>
-          <t>reperre</t>
+          <t>reperer</t>
         </is>
       </c>
       <c r="B2194" s="2" t="inlineStr">
@@ -26679,7 +26679,7 @@
     <row r="2195" ht="15" customHeight="1" s="3">
       <c r="A2195" s="2" t="inlineStr">
         <is>
-          <t>repinto</t>
+          <t>repinre</t>
         </is>
       </c>
       <c r="B2195" s="2" t="inlineStr">
@@ -26751,7 +26751,7 @@
     <row r="2201" ht="15" customHeight="1" s="3">
       <c r="A2201" s="2" t="inlineStr">
         <is>
-          <t>resrvre</t>
+          <t>resrvto</t>
         </is>
       </c>
       <c r="B2201" s="2" t="inlineStr">
@@ -26787,7 +26787,7 @@
     <row r="2204" ht="15" customHeight="1" s="3">
       <c r="A2204" s="2" t="inlineStr">
         <is>
-          <t>renssio</t>
+          <t>renssre</t>
         </is>
       </c>
       <c r="B2204" s="2" t="inlineStr">
@@ -26799,7 +26799,7 @@
     <row r="2205" ht="15" customHeight="1" s="3">
       <c r="A2205" s="2" t="inlineStr">
         <is>
-          <t>másntto</t>
+          <t>másntio</t>
         </is>
       </c>
       <c r="B2205" s="2" t="inlineStr">
@@ -26823,7 +26823,7 @@
     <row r="2207" ht="15" customHeight="1" s="3">
       <c r="A2207" s="2" t="inlineStr">
         <is>
-          <t>raziver</t>
+          <t>razivre</t>
         </is>
       </c>
       <c r="B2207" s="2" t="inlineStr">
@@ -26979,7 +26979,7 @@
     <row r="2220" ht="15" customHeight="1" s="3">
       <c r="A2220" s="2" t="inlineStr">
         <is>
-          <t>curlure</t>
+          <t>curluto</t>
         </is>
       </c>
       <c r="B2220" s="2" t="inlineStr">
@@ -27135,7 +27135,7 @@
     <row r="2233" ht="15" customHeight="1" s="3">
       <c r="A2233" s="2" t="inlineStr">
         <is>
-          <t>retader</t>
+          <t>retadto</t>
         </is>
       </c>
       <c r="B2233" s="2" t="inlineStr">
@@ -27219,7 +27219,7 @@
     <row r="2240" ht="15" customHeight="1" s="3">
       <c r="A2240" s="2" t="inlineStr">
         <is>
-          <t>deslier</t>
+          <t>desliio</t>
         </is>
       </c>
       <c r="B2240" s="2" t="inlineStr">
@@ -27243,7 +27243,7 @@
     <row r="2242" ht="15" customHeight="1" s="3">
       <c r="A2242" s="2" t="inlineStr">
         <is>
-          <t>afiamio</t>
+          <t>afiamer</t>
         </is>
       </c>
       <c r="B2242" s="2" t="inlineStr">
@@ -27279,7 +27279,7 @@
     <row r="2245" ht="15" customHeight="1" s="3">
       <c r="A2245" s="2" t="inlineStr">
         <is>
-          <t>reverio</t>
+          <t>reverto</t>
         </is>
       </c>
       <c r="B2245" s="2" t="inlineStr">
@@ -27291,7 +27291,7 @@
     <row r="2246" ht="15" customHeight="1" s="3">
       <c r="A2246" s="2" t="inlineStr">
         <is>
-          <t>revnter</t>
+          <t>revntio</t>
         </is>
       </c>
       <c r="B2246" s="2" t="inlineStr">
@@ -27303,7 +27303,7 @@
     <row r="2247" ht="15" customHeight="1" s="3">
       <c r="A2247" s="2" t="inlineStr">
         <is>
-          <t>revveio</t>
+          <t>revveto</t>
         </is>
       </c>
       <c r="B2247" s="2" t="inlineStr">
@@ -27351,7 +27351,7 @@
     <row r="2251" ht="15" customHeight="1" s="3">
       <c r="A2251" s="2" t="inlineStr">
         <is>
-          <t>revltio</t>
+          <t>revltre</t>
         </is>
       </c>
       <c r="B2251" s="2" t="inlineStr">
@@ -27363,7 +27363,7 @@
     <row r="2252" ht="15" customHeight="1" s="3">
       <c r="A2252" s="2" t="inlineStr">
         <is>
-          <t>revllre</t>
+          <t>revllio</t>
         </is>
       </c>
       <c r="B2252" s="2" t="inlineStr">
@@ -27375,7 +27375,7 @@
     <row r="2253" ht="15" customHeight="1" s="3">
       <c r="A2253" s="2" t="inlineStr">
         <is>
-          <t>burgnre</t>
+          <t>burgnto</t>
         </is>
       </c>
       <c r="B2253" s="2" t="inlineStr">
@@ -27399,7 +27399,7 @@
     <row r="2255" ht="15" customHeight="1" s="3">
       <c r="A2255" s="2" t="inlineStr">
         <is>
-          <t>ridolio</t>
+          <t>ridolre</t>
         </is>
       </c>
       <c r="B2255" s="2" t="inlineStr">
@@ -27435,7 +27435,7 @@
     <row r="2258" ht="15" customHeight="1" s="3">
       <c r="A2258" s="2" t="inlineStr">
         <is>
-          <t>másurre</t>
+          <t>másurer</t>
         </is>
       </c>
       <c r="B2258" s="2" t="inlineStr">
@@ -27471,7 +27471,7 @@
     <row r="2261" ht="15" customHeight="1" s="3">
       <c r="A2261" s="2" t="inlineStr">
         <is>
-          <t>Rumio</t>
+          <t>Rumre</t>
         </is>
       </c>
       <c r="B2261" s="2" t="inlineStr">
@@ -27495,7 +27495,7 @@
     <row r="2263" ht="15" customHeight="1" s="3">
       <c r="A2263" s="2" t="inlineStr">
         <is>
-          <t>raíicre</t>
+          <t>raíicio</t>
         </is>
       </c>
       <c r="B2263" s="2" t="inlineStr">
@@ -27567,7 +27567,7 @@
     <row r="2269" ht="15" customHeight="1" s="3">
       <c r="A2269" s="2" t="inlineStr">
         <is>
-          <t>másseer</t>
+          <t>mássere</t>
         </is>
       </c>
       <c r="B2269" s="2" t="inlineStr">
@@ -27615,7 +27615,7 @@
     <row r="2273" ht="15" customHeight="1" s="3">
       <c r="A2273" s="2" t="inlineStr">
         <is>
-          <t>brinzto</t>
+          <t>brinzer</t>
         </is>
       </c>
       <c r="B2273" s="2" t="inlineStr">
@@ -27639,7 +27639,7 @@
     <row r="2275" ht="15" customHeight="1" s="3">
       <c r="A2275" s="2" t="inlineStr">
         <is>
-          <t>óxiiner</t>
+          <t>óxiinto</t>
         </is>
       </c>
       <c r="B2275" s="2" t="inlineStr">
@@ -27687,7 +27687,7 @@
     <row r="2279" ht="15" customHeight="1" s="3">
       <c r="A2279" s="2" t="inlineStr">
         <is>
-          <t>queurto</t>
+          <t>queurio</t>
         </is>
       </c>
       <c r="B2279" s="2" t="inlineStr">
@@ -27699,7 +27699,7 @@
     <row r="2280" ht="15" customHeight="1" s="3">
       <c r="A2280" s="2" t="inlineStr">
         <is>
-          <t>camader</t>
+          <t>camadio</t>
         </is>
       </c>
       <c r="B2280" s="2" t="inlineStr">
@@ -27795,7 +27795,7 @@
     <row r="2288" ht="15" customHeight="1" s="3">
       <c r="A2288" s="2" t="inlineStr">
         <is>
-          <t>pacntto</t>
+          <t>pacntio</t>
         </is>
       </c>
       <c r="B2288" s="2" t="inlineStr">
@@ -27867,7 +27867,7 @@
     <row r="2294" ht="15" customHeight="1" s="3">
       <c r="A2294" s="2" t="inlineStr">
         <is>
-          <t>estonio</t>
+          <t>estonre</t>
         </is>
       </c>
       <c r="B2294" s="2" t="inlineStr">
@@ -27879,7 +27879,7 @@
     <row r="2295" ht="15" customHeight="1" s="3">
       <c r="A2295" s="2" t="inlineStr">
         <is>
-          <t>sler</t>
+          <t>slio</t>
         </is>
       </c>
       <c r="B2295" s="2" t="inlineStr">
@@ -27891,7 +27891,7 @@
     <row r="2296" ht="15" customHeight="1" s="3">
       <c r="A2296" s="2" t="inlineStr">
         <is>
-          <t>salcer</t>
+          <t>salcio</t>
         </is>
       </c>
       <c r="B2296" s="2" t="inlineStr">
@@ -27915,7 +27915,7 @@
     <row r="2298" ht="15" customHeight="1" s="3">
       <c r="A2298" s="2" t="inlineStr">
         <is>
-          <t>sanoner</t>
+          <t>sanonre</t>
         </is>
       </c>
       <c r="B2298" s="2" t="inlineStr">
@@ -27927,7 +27927,7 @@
     <row r="2299" ht="15" customHeight="1" s="3">
       <c r="A2299" s="2" t="inlineStr">
         <is>
-          <t>jabalio</t>
+          <t>jabalto</t>
         </is>
       </c>
       <c r="B2299" s="2" t="inlineStr">
@@ -27987,7 +27987,7 @@
     <row r="2304" ht="15" customHeight="1" s="3">
       <c r="A2304" s="2" t="inlineStr">
         <is>
-          <t>ancomre</t>
+          <t>ancomer</t>
         </is>
       </c>
       <c r="B2304" s="2" t="inlineStr">
@@ -28047,7 +28047,7 @@
     <row r="2309" ht="15" customHeight="1" s="3">
       <c r="A2309" s="2" t="inlineStr">
         <is>
-          <t>aholvio</t>
+          <t>aholvto</t>
         </is>
       </c>
       <c r="B2309" s="2" t="inlineStr">
@@ -28059,7 +28059,7 @@
     <row r="2310" ht="15" customHeight="1" s="3">
       <c r="A2310" s="2" t="inlineStr">
         <is>
-          <t>jaboner</t>
+          <t>jabonre</t>
         </is>
       </c>
       <c r="B2310" s="2" t="inlineStr">
@@ -28119,7 +28119,7 @@
     <row r="2315" ht="15" customHeight="1" s="3">
       <c r="A2315" s="2" t="inlineStr">
         <is>
-          <t>selcer</t>
+          <t>selcto</t>
         </is>
       </c>
       <c r="B2315" s="2" t="inlineStr">
@@ -28155,7 +28155,7 @@
     <row r="2318" ht="15" customHeight="1" s="3">
       <c r="A2318" s="2" t="inlineStr">
         <is>
-          <t>siegre</t>
+          <t>siegto</t>
         </is>
       </c>
       <c r="B2318" s="2" t="inlineStr">
@@ -28383,7 +28383,7 @@
     <row r="2337" ht="15" customHeight="1" s="3">
       <c r="A2337" s="2" t="inlineStr">
         <is>
-          <t>connzio</t>
+          <t>connzto</t>
         </is>
       </c>
       <c r="B2337" s="2" t="inlineStr">
@@ -28431,7 +28431,7 @@
     <row r="2341" ht="15" customHeight="1" s="3">
       <c r="A2341" s="2" t="inlineStr">
         <is>
-          <t>aorto</t>
+          <t>aorre</t>
         </is>
       </c>
       <c r="B2341" s="2" t="inlineStr">
@@ -28443,7 +28443,7 @@
     <row r="2342" ht="15" customHeight="1" s="3">
       <c r="A2342" s="2" t="inlineStr">
         <is>
-          <t>shamire</t>
+          <t>shamito</t>
         </is>
       </c>
       <c r="B2342" s="2" t="inlineStr">
@@ -28479,7 +28479,7 @@
     <row r="2345" ht="15" customHeight="1" s="3">
       <c r="A2345" s="2" t="inlineStr">
         <is>
-          <t>sorntre</t>
+          <t>sorntto</t>
         </is>
       </c>
       <c r="B2345" s="2" t="inlineStr">
@@ -28515,7 +28515,7 @@
     <row r="2348" ht="15" customHeight="1" s="3">
       <c r="A2348" s="2" t="inlineStr">
         <is>
-          <t>signtio</t>
+          <t>signtto</t>
         </is>
       </c>
       <c r="B2348" s="2" t="inlineStr">
@@ -28623,7 +28623,7 @@
     <row r="2357" ht="15" customHeight="1" s="3">
       <c r="A2357" s="2" t="inlineStr">
         <is>
-          <t>snooer</t>
+          <t>snooio</t>
         </is>
       </c>
       <c r="B2357" s="2" t="inlineStr">
@@ -28635,7 +28635,7 @@
     <row r="2358" ht="15" customHeight="1" s="3">
       <c r="A2358" s="2" t="inlineStr">
         <is>
-          <t>cuirre</t>
+          <t>cuirer</t>
         </is>
       </c>
       <c r="B2358" s="2" t="inlineStr">
@@ -28683,7 +28683,7 @@
     <row r="2362" ht="15" customHeight="1" s="3">
       <c r="A2362" s="2" t="inlineStr">
         <is>
-          <t>hunllto</t>
+          <t>hunller</t>
         </is>
       </c>
       <c r="B2362" s="2" t="inlineStr">
@@ -28695,7 +28695,7 @@
     <row r="2363" ht="15" customHeight="1" s="3">
       <c r="A2363" s="2" t="inlineStr">
         <is>
-          <t>dornner</t>
+          <t>dornnto</t>
         </is>
       </c>
       <c r="B2363" s="2" t="inlineStr">
@@ -28719,7 +28719,7 @@
     <row r="2365" ht="15" customHeight="1" s="3">
       <c r="A2365" s="2" t="inlineStr">
         <is>
-          <t>snzto</t>
+          <t>snzio</t>
         </is>
       </c>
       <c r="B2365" s="2" t="inlineStr">
@@ -28803,7 +28803,7 @@
     <row r="2372" ht="15" customHeight="1" s="3">
       <c r="A2372" s="2" t="inlineStr">
         <is>
-          <t>sobnter</t>
+          <t>sobntre</t>
         </is>
       </c>
       <c r="B2372" s="2" t="inlineStr">
@@ -28887,7 +28887,7 @@
     <row r="2379" ht="15" customHeight="1" s="3">
       <c r="A2379" s="2" t="inlineStr">
         <is>
-          <t>zaprpto</t>
+          <t>zaprper</t>
         </is>
       </c>
       <c r="B2379" s="2" t="inlineStr">
@@ -28923,7 +28923,7 @@
     <row r="2382" ht="15" customHeight="1" s="3">
       <c r="A2382" s="2" t="inlineStr">
         <is>
-          <t>cento</t>
+          <t>cenio</t>
         </is>
       </c>
       <c r="B2382" s="2" t="inlineStr">
@@ -28959,7 +28959,7 @@
     <row r="2385" ht="15" customHeight="1" s="3">
       <c r="A2385" s="2" t="inlineStr">
         <is>
-          <t>susirre</t>
+          <t>susirio</t>
         </is>
       </c>
       <c r="B2385" s="2" t="inlineStr">
@@ -29031,7 +29031,7 @@
     <row r="2391" ht="15" customHeight="1" s="3">
       <c r="A2391" s="2" t="inlineStr">
         <is>
-          <t>vocntto</t>
+          <t>vocntre</t>
         </is>
       </c>
       <c r="B2391" s="2" t="inlineStr">
@@ -29079,7 +29079,7 @@
     <row r="2395" ht="15" customHeight="1" s="3">
       <c r="A2395" s="2" t="inlineStr">
         <is>
-          <t>alminio</t>
+          <t>alminre</t>
         </is>
       </c>
       <c r="B2395" s="2" t="inlineStr">
@@ -29091,7 +29091,7 @@
     <row r="2396" ht="15" customHeight="1" s="3">
       <c r="A2396" s="2" t="inlineStr">
         <is>
-          <t>tapppto</t>
+          <t>tappper</t>
         </is>
       </c>
       <c r="B2396" s="2" t="inlineStr">
@@ -29127,7 +29127,7 @@
     <row r="2399" ht="15" customHeight="1" s="3">
       <c r="A2399" s="2" t="inlineStr">
         <is>
-          <t>ascntre</t>
+          <t>ascntio</t>
         </is>
       </c>
       <c r="B2399" s="2" t="inlineStr">
@@ -29247,7 +29247,7 @@
     <row r="2409" ht="15" customHeight="1" s="3">
       <c r="A2409" s="2" t="inlineStr">
         <is>
-          <t>azúerto</t>
+          <t>azúerio</t>
         </is>
       </c>
       <c r="B2409" s="2" t="inlineStr">
@@ -29403,7 +29403,7 @@
     <row r="2422" ht="15" customHeight="1" s="3">
       <c r="A2422" s="2" t="inlineStr">
         <is>
-          <t>BORARto</t>
+          <t>BORARer</t>
         </is>
       </c>
       <c r="B2422" s="2" t="inlineStr">
@@ -29451,7 +29451,7 @@
     <row r="2426" ht="15" customHeight="1" s="3">
       <c r="A2426" s="2" t="inlineStr">
         <is>
-          <t>sobatto</t>
+          <t>sobater</t>
         </is>
       </c>
       <c r="B2426" s="2" t="inlineStr">
@@ -29523,7 +29523,7 @@
     <row r="2432" ht="15" customHeight="1" s="3">
       <c r="A2432" s="2" t="inlineStr">
         <is>
-          <t>apoomer</t>
+          <t>apoomto</t>
         </is>
       </c>
       <c r="B2432" s="2" t="inlineStr">
@@ -29619,7 +29619,7 @@
     <row r="2440" ht="15" customHeight="1" s="3">
       <c r="A2440" s="2" t="inlineStr">
         <is>
-          <t>susrrio</t>
+          <t>susrrto</t>
         </is>
       </c>
       <c r="B2440" s="2" t="inlineStr">
@@ -29655,7 +29655,7 @@
     <row r="2443" ht="15" customHeight="1" s="3">
       <c r="A2443" s="2" t="inlineStr">
         <is>
-          <t>delulio</t>
+          <t>delulre</t>
         </is>
       </c>
       <c r="B2443" s="2" t="inlineStr">
@@ -29667,7 +29667,7 @@
     <row r="2444" ht="15" customHeight="1" s="3">
       <c r="A2444" s="2" t="inlineStr">
         <is>
-          <t>manhiio</t>
+          <t>manhito</t>
         </is>
       </c>
       <c r="B2444" s="2" t="inlineStr">
@@ -29679,7 +29679,7 @@
     <row r="2445" ht="15" customHeight="1" s="3">
       <c r="A2445" s="2" t="inlineStr">
         <is>
-          <t>cirsser</t>
+          <t>cirssio</t>
         </is>
       </c>
       <c r="B2445" s="2" t="inlineStr">
@@ -29739,7 +29739,7 @@
     <row r="2450" ht="15" customHeight="1" s="3">
       <c r="A2450" s="2" t="inlineStr">
         <is>
-          <t>Tánerer</t>
+          <t>Tánerto</t>
         </is>
       </c>
       <c r="B2450" s="2" t="inlineStr">
@@ -29751,7 +29751,7 @@
     <row r="2451" ht="15" customHeight="1" s="3">
       <c r="A2451" s="2" t="inlineStr">
         <is>
-          <t>petrnio</t>
+          <t>petrnre</t>
         </is>
       </c>
       <c r="B2451" s="2" t="inlineStr">
@@ -29775,7 +29775,7 @@
     <row r="2453" ht="15" customHeight="1" s="3">
       <c r="A2453" s="2" t="inlineStr">
         <is>
-          <t>afiitre</t>
+          <t>afiitto</t>
         </is>
       </c>
       <c r="B2453" s="2" t="inlineStr">
@@ -29787,7 +29787,7 @@
     <row r="2454" ht="15" customHeight="1" s="3">
       <c r="A2454" s="2" t="inlineStr">
         <is>
-          <t>fasoner</t>
+          <t>fasonio</t>
         </is>
       </c>
       <c r="B2454" s="2" t="inlineStr">
@@ -29799,7 +29799,7 @@
     <row r="2455" ht="15" customHeight="1" s="3">
       <c r="A2455" s="2" t="inlineStr">
         <is>
-          <t>demrder</t>
+          <t>demrdto</t>
         </is>
       </c>
       <c r="B2455" s="2" t="inlineStr">
@@ -29811,7 +29811,7 @@
     <row r="2456" ht="15" customHeight="1" s="3">
       <c r="A2456" s="2" t="inlineStr">
         <is>
-          <t>secrsre</t>
+          <t>secrser</t>
         </is>
       </c>
       <c r="B2456" s="2" t="inlineStr">
@@ -29823,7 +29823,7 @@
     <row r="2457" ht="15" customHeight="1" s="3">
       <c r="A2457" s="2" t="inlineStr">
         <is>
-          <t>aprgire</t>
+          <t>aprgier</t>
         </is>
       </c>
       <c r="B2457" s="2" t="inlineStr">
@@ -29871,7 +29871,7 @@
     <row r="2461" ht="15" customHeight="1" s="3">
       <c r="A2461" s="2" t="inlineStr">
         <is>
-          <t>impstto</t>
+          <t>impster</t>
         </is>
       </c>
       <c r="B2461" s="2" t="inlineStr">
@@ -29883,7 +29883,7 @@
     <row r="2462" ht="15" customHeight="1" s="3">
       <c r="A2462" s="2" t="inlineStr">
         <is>
-          <t>tinnter</t>
+          <t>tinntre</t>
         </is>
       </c>
       <c r="B2462" s="2" t="inlineStr">
@@ -30051,7 +30051,7 @@
     <row r="2476" ht="15" customHeight="1" s="3">
       <c r="A2476" s="2" t="inlineStr">
         <is>
-          <t>ataeito</t>
+          <t>ataeiio</t>
         </is>
       </c>
       <c r="B2476" s="2" t="inlineStr">
@@ -30063,7 +30063,7 @@
     <row r="2477" ht="15" customHeight="1" s="3">
       <c r="A2477" s="2" t="inlineStr">
         <is>
-          <t>tintrre</t>
+          <t>tintrer</t>
         </is>
       </c>
       <c r="B2477" s="2" t="inlineStr">
@@ -30207,7 +30207,7 @@
     <row r="2489" ht="15" customHeight="1" s="3">
       <c r="A2489" s="2" t="inlineStr">
         <is>
-          <t>tonater</t>
+          <t>tonatre</t>
         </is>
       </c>
       <c r="B2489" s="2" t="inlineStr">
@@ -30231,7 +30231,7 @@
     <row r="2491" ht="15" customHeight="1" s="3">
       <c r="A2491" s="2" t="inlineStr">
         <is>
-          <t>antcire</t>
+          <t>antcito</t>
         </is>
       </c>
       <c r="B2491" s="2" t="inlineStr">
@@ -30351,7 +30351,7 @@
     <row r="2501" ht="15" customHeight="1" s="3">
       <c r="A2501" s="2" t="inlineStr">
         <is>
-          <t>trantre</t>
+          <t>trantto</t>
         </is>
       </c>
       <c r="B2501" s="2" t="inlineStr">
@@ -30363,7 +30363,7 @@
     <row r="2502" ht="15" customHeight="1" s="3">
       <c r="A2502" s="2" t="inlineStr">
         <is>
-          <t>tráicer</t>
+          <t>tráicre</t>
         </is>
       </c>
       <c r="B2502" s="2" t="inlineStr">
@@ -30711,7 +30711,7 @@
     <row r="2531" ht="15" customHeight="1" s="3">
       <c r="A2531" s="2" t="inlineStr">
         <is>
-          <t>trecier</t>
+          <t>trecire</t>
         </is>
       </c>
       <c r="B2531" s="2" t="inlineStr">
@@ -30735,7 +30735,7 @@
     <row r="2533" ht="15" customHeight="1" s="3">
       <c r="A2533" s="2" t="inlineStr">
         <is>
-          <t>tejliio</t>
+          <t>tejlier</t>
         </is>
       </c>
       <c r="B2533" s="2" t="inlineStr">
@@ -30747,7 +30747,7 @@
     <row r="2534" ht="15" customHeight="1" s="3">
       <c r="A2534" s="2" t="inlineStr">
         <is>
-          <t>Tréirto</t>
+          <t>Tréirer</t>
         </is>
       </c>
       <c r="B2534" s="2" t="inlineStr">
@@ -30759,7 +30759,7 @@
     <row r="2535" ht="15" customHeight="1" s="3">
       <c r="A2535" s="2" t="inlineStr">
         <is>
-          <t>tríerre</t>
+          <t>tríerer</t>
         </is>
       </c>
       <c r="B2535" s="2" t="inlineStr">
@@ -30831,7 +30831,7 @@
     <row r="2541" ht="15" customHeight="1" s="3">
       <c r="A2541" s="2" t="inlineStr">
         <is>
-          <t>aceedio</t>
+          <t>aceedto</t>
         </is>
       </c>
       <c r="B2541" s="2" t="inlineStr">
@@ -30903,7 +30903,7 @@
     <row r="2547" ht="15" customHeight="1" s="3">
       <c r="A2547" s="2" t="inlineStr">
         <is>
-          <t>matonto</t>
+          <t>matoner</t>
         </is>
       </c>
       <c r="B2547" s="2" t="inlineStr">
@@ -30927,7 +30927,7 @@
     <row r="2549" ht="15" customHeight="1" s="3">
       <c r="A2549" s="2" t="inlineStr">
         <is>
-          <t>tubre</t>
+          <t>tuber</t>
         </is>
       </c>
       <c r="B2549" s="2" t="inlineStr">
@@ -31011,7 +31011,7 @@
     <row r="2556" ht="15" customHeight="1" s="3">
       <c r="A2556" s="2" t="inlineStr">
         <is>
-          <t>usuntto</t>
+          <t>usuntio</t>
         </is>
       </c>
       <c r="B2556" s="2" t="inlineStr">
@@ -31095,7 +31095,7 @@
     <row r="2563" ht="15" customHeight="1" s="3">
       <c r="A2563" s="2" t="inlineStr">
         <is>
-          <t>valenre</t>
+          <t>valener</t>
         </is>
       </c>
       <c r="B2563" s="2" t="inlineStr">
@@ -31119,7 +31119,7 @@
     <row r="2565" ht="15" customHeight="1" s="3">
       <c r="A2565" s="2" t="inlineStr">
         <is>
-          <t>aguquio</t>
+          <t>aguquto</t>
         </is>
       </c>
       <c r="B2565" s="2" t="inlineStr">
@@ -31131,7 +31131,7 @@
     <row r="2566" ht="15" customHeight="1" s="3">
       <c r="A2566" s="2" t="inlineStr">
         <is>
-          <t>prersto</t>
+          <t>prerser</t>
         </is>
       </c>
       <c r="B2566" s="2" t="inlineStr">
@@ -31167,7 +31167,7 @@
     <row r="2569" ht="15" customHeight="1" s="3">
       <c r="A2569" s="2" t="inlineStr">
         <is>
-          <t>veholre</t>
+          <t>veholio</t>
         </is>
       </c>
       <c r="B2569" s="2" t="inlineStr">
@@ -31203,7 +31203,7 @@
     <row r="2572" ht="15" customHeight="1" s="3">
       <c r="A2572" s="2" t="inlineStr">
         <is>
-          <t>venttto</t>
+          <t>venttre</t>
         </is>
       </c>
       <c r="B2572" s="2" t="inlineStr">
@@ -31239,7 +31239,7 @@
     <row r="2575" ht="15" customHeight="1" s="3">
       <c r="A2575" s="2" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>vio</t>
         </is>
       </c>
       <c r="B2575" s="2" t="inlineStr">
@@ -31275,7 +31275,7 @@
     <row r="2578" ht="15" customHeight="1" s="3">
       <c r="A2578" s="2" t="inlineStr">
         <is>
-          <t>baricer</t>
+          <t>baricio</t>
         </is>
       </c>
       <c r="B2578" s="2" t="inlineStr">
@@ -31299,7 +31299,7 @@
     <row r="2580" ht="15" customHeight="1" s="3">
       <c r="A2580" s="2" t="inlineStr">
         <is>
-          <t>vetliio</t>
+          <t>vetlire</t>
         </is>
       </c>
       <c r="B2580" s="2" t="inlineStr">
@@ -31323,7 +31323,7 @@
     <row r="2582" ht="15" customHeight="1" s="3">
       <c r="A2582" s="2" t="inlineStr">
         <is>
-          <t>vejntio</t>
+          <t>vejntto</t>
         </is>
       </c>
       <c r="B2582" s="2" t="inlineStr">
@@ -31431,7 +31431,7 @@
     <row r="2591" ht="15" customHeight="1" s="3">
       <c r="A2591" s="2" t="inlineStr">
         <is>
-          <t>mueolre</t>
+          <t>mueolto</t>
         </is>
       </c>
       <c r="B2591" s="2" t="inlineStr">
@@ -31479,7 +31479,7 @@
     <row r="2595" ht="15" customHeight="1" s="3">
       <c r="A2595" s="2" t="inlineStr">
         <is>
-          <t>Vlamier</t>
+          <t>Vlamiio</t>
         </is>
       </c>
       <c r="B2595" s="2" t="inlineStr">
@@ -31503,7 +31503,7 @@
     <row r="2597" ht="15" customHeight="1" s="3">
       <c r="A2597" s="2" t="inlineStr">
         <is>
-          <t>navlto</t>
+          <t>navlre</t>
         </is>
       </c>
       <c r="B2597" s="2" t="inlineStr">
@@ -31527,7 +31527,7 @@
     <row r="2599" ht="15" customHeight="1" s="3">
       <c r="A2599" s="2" t="inlineStr">
         <is>
-          <t>barerio</t>
+          <t>barerto</t>
         </is>
       </c>
       <c r="B2599" s="2" t="inlineStr">
@@ -31755,7 +31755,7 @@
     <row r="2618" ht="15" customHeight="1" s="3">
       <c r="A2618" s="2" t="inlineStr">
         <is>
-          <t>lo osto</t>
+          <t>lo oser</t>
         </is>
       </c>
       <c r="B2618" s="2" t="inlineStr">
